--- a/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B4AD2-41DA-4D56-9353-7C73B83A7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0224AD3-43CD-4128-B1A3-4E4E1E755861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -3812,20 +3812,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3839,9 +3854,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3850,18 +3862,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3877,9 +3877,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3902,14 +3899,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3926,26 +3917,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -3959,17 +3944,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4723,7 +4723,7 @@
   <dimension ref="B1:O126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6132,8 +6132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF2698-90C0-4053-8241-77F6D7A42F8D}">
   <dimension ref="A2:CN134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6153,21 +6153,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="135" t="s">
         <v>821</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="F2" s="139" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="F2" s="135" t="s">
         <v>820</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="K2" s="139" t="s">
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="K2" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
       <c r="O2" s="114" t="s">
         <v>788</v>
       </c>
@@ -6182,17 +6182,17 @@
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="130" t="s">
         <v>817</v>
       </c>
-      <c r="B3" s="133"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="136" t="s">
         <v>816</v>
       </c>
-      <c r="G3" s="145"/>
+      <c r="G3" s="138"/>
       <c r="H3" s="120" t="s">
         <v>140</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="M3" s="114">
         <f>VLOOKUP($L$5,$O3:$Q5,2,FALSE)</f>
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="O3" s="114" t="s">
         <v>815</v>
@@ -6223,10 +6223,10 @@
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="130" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="133"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="113">
         <v>800</v>
       </c>
@@ -6234,10 +6234,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="139" t="s">
         <v>812</v>
       </c>
-      <c r="G4" s="146"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="111">
         <f>IF($C$6=$S$2,IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8)),IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8))*1.8)</f>
         <v>0.13</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="M4" s="114">
         <f>VLOOKUP($L$5,$O3:$Q5,3,FALSE)</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O4" s="114" t="s">
         <v>155</v>
@@ -6271,10 +6271,10 @@
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="130" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="113">
         <v>-180</v>
       </c>
@@ -6282,10 +6282,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="136" t="s">
         <v>810</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="117">
         <f>IF($C$3=$S$5,LOOKUP(H3,V7:V8,X7:X8),LOOKUP(H3,V7:V8,Z7:Z8))</f>
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>788</v>
       </c>
       <c r="L5" s="115" t="s">
-        <v>809</v>
+        <v>155</v>
       </c>
       <c r="O5" s="114" t="s">
         <v>809</v>
@@ -6322,17 +6322,17 @@
       <c r="Z5" s="134"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="130" t="s">
         <v>808</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="130" t="s">
         <v>807</v>
       </c>
-      <c r="G6" s="133"/>
+      <c r="G6" s="131"/>
       <c r="H6" s="113">
         <v>0.1</v>
       </c>
@@ -6360,10 +6360,10 @@
       </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="130" t="s">
         <v>804</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="112">
         <v>1</v>
       </c>
@@ -6371,12 +6371,12 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="K7" s="139" t="s">
+      <c r="K7" s="135" t="s">
         <v>803</v>
       </c>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
       <c r="U7" s="110" t="s">
         <v>802</v>
       </c>
@@ -6399,14 +6399,14 @@
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="K8" s="140" t="s">
+      <c r="K8" s="144" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140" t="s">
+      <c r="L8" s="144"/>
+      <c r="M8" s="144" t="s">
         <v>800</v>
       </c>
-      <c r="N8" s="140"/>
+      <c r="N8" s="144"/>
       <c r="U8" s="110" t="s">
         <v>799</v>
       </c>
@@ -6444,17 +6444,17 @@
       </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="146" t="s">
         <v>797</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="145" t="s">
         <v>796</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141" t="s">
+      <c r="C10" s="145"/>
+      <c r="D10" s="145" t="s">
         <v>795</v>
       </c>
-      <c r="E10" s="141"/>
+      <c r="E10" s="145"/>
       <c r="K10" s="26" t="str">
         <f>$C$6</f>
         <v>°C</v>
@@ -6473,7 +6473,7 @@
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A11" s="142"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="107" t="s">
         <v>794</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="E19" s="104">
         <v>0</v>
       </c>
-      <c r="K19" s="135" t="s">
+      <c r="K19" s="140" t="s">
         <v>190</v>
       </c>
       <c r="L19" s="26" t="s">
@@ -6789,7 +6789,7 @@
       <c r="E20" s="104">
         <v>0</v>
       </c>
-      <c r="K20" s="135"/>
+      <c r="K20" s="140"/>
       <c r="L20" s="26" t="s">
         <v>779</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="E21" s="104">
         <v>0</v>
       </c>
-      <c r="K21" s="135"/>
+      <c r="K21" s="140"/>
       <c r="L21" s="26" t="s">
         <v>778</v>
       </c>
@@ -6838,7 +6838,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="135"/>
+      <c r="K22" s="140"/>
       <c r="L22" s="26" t="s">
         <v>777</v>
       </c>
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="135"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="26" t="s">
         <v>776</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="135"/>
+      <c r="K24" s="140"/>
       <c r="L24" s="26" t="s">
         <v>775</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="135"/>
+      <c r="K25" s="140"/>
       <c r="L25" s="26" t="s">
         <v>774</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="G26" s="92" t="s">
         <v>789</v>
       </c>
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="141" t="s">
         <v>189</v>
       </c>
       <c r="L26" s="26" t="s">
@@ -6967,7 +6967,7 @@
       <c r="G27" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="137"/>
+      <c r="K27" s="142"/>
       <c r="L27" s="26" t="s">
         <v>779</v>
       </c>
@@ -7012,7 +7012,7 @@
         <f t="shared" si="0"/>
         <v>°C</v>
       </c>
-      <c r="K28" s="137"/>
+      <c r="K28" s="142"/>
       <c r="L28" s="26" t="s">
         <v>778</v>
       </c>
@@ -7057,7 +7057,7 @@
         <f t="shared" ref="G29:G36" si="6">ABS(AVERAGE(B14,D14)-AVERAGE(C14,E14))</f>
         <v>0</v>
       </c>
-      <c r="K29" s="137"/>
+      <c r="K29" s="142"/>
       <c r="L29" s="26" t="s">
         <v>777</v>
       </c>
@@ -7102,7 +7102,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K30" s="137"/>
+      <c r="K30" s="142"/>
       <c r="L30" s="26" t="s">
         <v>776</v>
       </c>
@@ -7147,7 +7147,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K31" s="137"/>
+      <c r="K31" s="142"/>
       <c r="L31" s="26" t="s">
         <v>775</v>
       </c>
@@ -7192,7 +7192,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K32" s="138"/>
+      <c r="K32" s="143"/>
       <c r="L32" s="26" t="s">
         <v>774</v>
       </c>
@@ -7408,16 +7408,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="132" t="s">
         <v>783</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
       <c r="K38" s="134"/>
       <c r="L38" s="26" t="s">
         <v>775</v>
@@ -7438,8 +7438,8 @@
       <c r="A39" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="121" t="s">
         <v>767</v>
       </c>
@@ -7472,9 +7472,9 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="121"/>
       <c r="E40" s="121"/>
       <c r="F40" s="121"/>
@@ -7825,16 +7825,16 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="130" t="s">
+      <c r="A50" s="132" t="s">
         <v>782</v>
       </c>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
       <c r="K50" s="134"/>
       <c r="L50" s="26" t="s">
         <v>777</v>
@@ -7855,8 +7855,8 @@
       <c r="A51" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="121" t="s">
         <v>767</v>
       </c>
@@ -7889,9 +7889,9 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
+      <c r="A52" s="133"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
       <c r="D52" s="121"/>
       <c r="E52" s="121"/>
       <c r="F52" s="121"/>
@@ -8239,16 +8239,16 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="130" t="s">
+      <c r="A62" s="132" t="s">
         <v>781</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
       <c r="K62" s="134"/>
       <c r="L62" s="26" t="s">
         <v>779</v>
@@ -8269,8 +8269,8 @@
       <c r="A63" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B63" s="131"/>
-      <c r="C63" s="131"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="121" t="s">
         <v>767</v>
       </c>
@@ -8303,9 +8303,9 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="131"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="131"/>
+      <c r="A64" s="133"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="121"/>
       <c r="E64" s="121"/>
       <c r="F64" s="121"/>
@@ -8681,34 +8681,34 @@
       <c r="I75" s="93"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="130" t="s">
+      <c r="A76" s="132" t="s">
         <v>773</v>
       </c>
-      <c r="B76" s="130"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="130"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
       <c r="I76" s="93"/>
-      <c r="J76" s="130" t="s">
+      <c r="J76" s="132" t="s">
         <v>772</v>
       </c>
-      <c r="K76" s="130"/>
-      <c r="L76" s="130"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="130"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="130"/>
-      <c r="Q76" s="130"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="132"/>
+      <c r="N76" s="132"/>
+      <c r="O76" s="132"/>
+      <c r="P76" s="132"/>
+      <c r="Q76" s="132"/>
     </row>
     <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B77" s="131"/>
-      <c r="C77" s="131"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="133"/>
       <c r="D77" s="121" t="s">
         <v>767</v>
       </c>
@@ -8727,8 +8727,8 @@
       <c r="J77" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131"/>
+      <c r="K77" s="133"/>
+      <c r="L77" s="133"/>
       <c r="M77" s="121" t="s">
         <v>767</v>
       </c>
@@ -8746,17 +8746,17 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="131"/>
-      <c r="B78" s="131"/>
-      <c r="C78" s="131"/>
+      <c r="A78" s="133"/>
+      <c r="B78" s="133"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="121"/>
       <c r="E78" s="121"/>
       <c r="F78" s="121"/>
       <c r="G78" s="121"/>
       <c r="H78" s="121"/>
-      <c r="J78" s="131"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
       <c r="M78" s="121"/>
       <c r="N78" s="121"/>
       <c r="O78" s="121"/>
@@ -9122,33 +9122,33 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="130" t="s">
+      <c r="A88" s="132" t="s">
         <v>771</v>
       </c>
-      <c r="B88" s="130"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="130"/>
-      <c r="J88" s="130" t="s">
+      <c r="B88" s="132"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="132"/>
+      <c r="G88" s="132"/>
+      <c r="H88" s="132"/>
+      <c r="J88" s="132" t="s">
         <v>770</v>
       </c>
-      <c r="K88" s="130"/>
-      <c r="L88" s="130"/>
-      <c r="M88" s="130"/>
-      <c r="N88" s="130"/>
-      <c r="O88" s="130"/>
-      <c r="P88" s="130"/>
-      <c r="Q88" s="130"/>
+      <c r="K88" s="132"/>
+      <c r="L88" s="132"/>
+      <c r="M88" s="132"/>
+      <c r="N88" s="132"/>
+      <c r="O88" s="132"/>
+      <c r="P88" s="132"/>
+      <c r="Q88" s="132"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
       <c r="D89" s="121" t="s">
         <v>767</v>
       </c>
@@ -9167,8 +9167,8 @@
       <c r="J89" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="K89" s="131"/>
-      <c r="L89" s="131"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="133"/>
       <c r="M89" s="121" t="s">
         <v>767</v>
       </c>
@@ -9186,17 +9186,17 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="131"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
+      <c r="A90" s="133"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="133"/>
       <c r="D90" s="121"/>
       <c r="E90" s="121"/>
       <c r="F90" s="121"/>
       <c r="G90" s="121"/>
       <c r="H90" s="121"/>
-      <c r="J90" s="131"/>
-      <c r="K90" s="131"/>
-      <c r="L90" s="131"/>
+      <c r="J90" s="133"/>
+      <c r="K90" s="133"/>
+      <c r="L90" s="133"/>
       <c r="M90" s="121"/>
       <c r="N90" s="121"/>
       <c r="O90" s="121"/>
@@ -9562,23 +9562,23 @@
       </c>
     </row>
     <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="130" t="s">
+      <c r="A100" s="132" t="s">
         <v>769</v>
       </c>
-      <c r="B100" s="130"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="130"/>
-      <c r="E100" s="130"/>
-      <c r="F100" s="130"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="130"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="132"/>
+      <c r="F100" s="132"/>
+      <c r="G100" s="132"/>
+      <c r="H100" s="132"/>
     </row>
     <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="133"/>
       <c r="D101" s="121" t="s">
         <v>767</v>
       </c>
@@ -9596,9 +9596,9 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="131"/>
-      <c r="B102" s="131"/>
-      <c r="C102" s="131"/>
+      <c r="A102" s="133"/>
+      <c r="B102" s="133"/>
+      <c r="C102" s="133"/>
       <c r="D102" s="121"/>
       <c r="E102" s="121"/>
       <c r="F102" s="121"/>
@@ -9897,6 +9897,9 @@
     <mergeCell ref="M89:M90"/>
     <mergeCell ref="N89:N90"/>
     <mergeCell ref="O89:O90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="P89:P90"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="H89:H90"/>
@@ -9908,9 +9911,7 @@
     <mergeCell ref="P77:P78"/>
     <mergeCell ref="Q77:Q78"/>
     <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="J79:L79"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="D85:F86"/>
@@ -9922,18 +9923,10 @@
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:C83"/>
-    <mergeCell ref="J79:L79"/>
     <mergeCell ref="J80:L80"/>
     <mergeCell ref="J81:L81"/>
     <mergeCell ref="J82:L82"/>
     <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C52"/>
-    <mergeCell ref="D51:D52"/>
     <mergeCell ref="A76:H76"/>
     <mergeCell ref="A77:C78"/>
     <mergeCell ref="D77:D78"/>
@@ -9945,8 +9938,11 @@
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -9957,10 +9953,14 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D59:F60"/>
     <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="F63:F64"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="H63:H64"/>
@@ -10035,12 +10035,12 @@
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
       <c r="D4" s="149"/>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="I5" s="31">
         <f>'Entrada de Datos'!M3</f>
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>133</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="I6" s="31">
         <f>'Entrada de Datos'!M4</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>130</v>
@@ -10522,16 +10522,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -10759,16 +10759,16 @@
       <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
@@ -11033,10 +11033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600CB85-6596-4159-82BB-120C84D9BD1B}">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:V27"/>
+    <sheetView view="pageLayout" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11065,29 +11065,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="177"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
+      <c r="A1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
     </row>
     <row r="2" spans="1:25" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62"/>
@@ -11207,14 +11207,14 @@
       <c r="K8" s="56"/>
       <c r="L8" s="59"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="163">
+      <c r="N8" s="160">
         <f ca="1">NOW()</f>
-        <v>45428.647294097223</v>
-      </c>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
+        <v>45429.474610648147</v>
+      </c>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
       <c r="S8" s="53"/>
       <c r="T8" s="53"/>
       <c r="U8" s="53"/>
@@ -11537,44 +11537,44 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="152"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="153"/>
-      <c r="F23" s="154" t="s">
+      <c r="E23" s="152"/>
+      <c r="F23" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="156"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
       <c r="L23" s="149" t="s">
         <v>121</v>
       </c>
@@ -11583,37 +11583,37 @@
       <c r="O23" s="149"/>
       <c r="P23" s="149"/>
       <c r="Q23" s="149"/>
-      <c r="R23" s="153" t="s">
+      <c r="R23" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
       <c r="L24" s="149"/>
       <c r="M24" s="149"/>
       <c r="N24" s="149"/>
       <c r="O24" s="149"/>
       <c r="P24" s="149"/>
       <c r="Q24" s="149"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
@@ -11655,586 +11655,641 @@
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="180">
+      <c r="D26" s="159">
         <f>'Salida de Datos'!A8</f>
         <v>-180</v>
       </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180">
+      <c r="E26" s="159"/>
+      <c r="F26" s="159">
         <f>'Salida de Datos'!B8</f>
         <v>-180</v>
       </c>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180">
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159">
         <f>'Salida de Datos'!C8</f>
         <v>0</v>
       </c>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="180"/>
-      <c r="R26" s="180">
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159">
         <f>'Salida de Datos'!D8</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S26" s="180"/>
-      <c r="T26" s="180"/>
-      <c r="U26" s="180"/>
-      <c r="V26" s="180"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="180">
+      <c r="D27" s="159">
         <f>'Salida de Datos'!A9</f>
         <v>49.9</v>
       </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180">
+      <c r="E27" s="159"/>
+      <c r="F27" s="159">
         <f>'Salida de Datos'!B9</f>
         <v>50</v>
       </c>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180">
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159">
         <f>'Salida de Datos'!C9</f>
         <v>-0.10000000000000142</v>
       </c>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180">
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159">
         <f>'Salida de Datos'!D9</f>
         <v>1.4505939875329235</v>
       </c>
-      <c r="S27" s="180"/>
-      <c r="T27" s="180"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="180">
+      <c r="D28" s="159">
         <f>'Salida de Datos'!A10</f>
         <v>199.85</v>
       </c>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180">
+      <c r="E28" s="159"/>
+      <c r="F28" s="159">
         <f>'Salida de Datos'!B10</f>
         <v>200</v>
       </c>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180">
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159">
         <f>'Salida de Datos'!C10</f>
         <v>-0.15000000000000568</v>
       </c>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180">
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159">
         <f>'Salida de Datos'!D10</f>
         <v>1.4505939875329235</v>
       </c>
-      <c r="S28" s="180"/>
-      <c r="T28" s="180"/>
-      <c r="U28" s="180"/>
-      <c r="V28" s="180"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="180">
+      <c r="D29" s="159">
         <f>'Salida de Datos'!A11</f>
         <v>349.8</v>
       </c>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159">
         <f>'Salida de Datos'!B11</f>
         <v>350</v>
       </c>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180">
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159">
         <f>'Salida de Datos'!C11</f>
         <v>-0.19999999999998863</v>
       </c>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180">
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159">
         <f>'Salida de Datos'!D11</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S29" s="180"/>
-      <c r="T29" s="180"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="180">
+      <c r="D30" s="159">
         <f>'Salida de Datos'!A12</f>
         <v>749.8</v>
       </c>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159">
         <f>'Salida de Datos'!B12</f>
         <v>752</v>
       </c>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180">
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159">
         <f>'Salida de Datos'!C12</f>
         <v>-2.2000000000000455</v>
       </c>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180">
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159">
         <f>'Salida de Datos'!D12</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="159"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="159">
+        <f>'Salida de Datos'!A13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159">
+        <f>'Salida de Datos'!B13</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159">
+        <f>'Salida de Datos'!C13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159">
+        <f>'Salida de Datos'!D13</f>
+        <v>1.4865368029977151</v>
+      </c>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>173</v>
-      </c>
+      <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="182" t="s">
+      <c r="D32" s="159">
+        <f>'Salida de Datos'!A14</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159">
+        <f>'Salida de Datos'!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159">
+        <f>'Salida de Datos'!C14</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159">
+        <f>'Salida de Datos'!D14</f>
+        <v>1.4865368029977151</v>
+      </c>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="159">
+        <f>'Salida de Datos'!A15</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159">
+        <f>'Salida de Datos'!B15</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159">
+        <f>'Salida de Datos'!C15</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="159">
+        <f>'Salida de Datos'!D15</f>
+        <v>1.4865368029977151</v>
+      </c>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="159"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="159">
+        <f>'Salida de Datos'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159">
+        <f>'Salida de Datos'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159">
+        <f>'Salida de Datos'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159">
+        <f>'Salida de Datos'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
+      <c r="B39" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="52">
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="52">
         <f>'Salida de Datos'!G5</f>
         <v>55</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F39" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G39" s="51">
         <f>'Salida de Datos'!I5</f>
-        <v>0.68</v>
-      </c>
-      <c r="H33" s="53" t="s">
+        <v>0.63</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="52">
+      <c r="C40" s="53"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="52">
         <f>'Salida de Datos'!G6</f>
         <v>40.6</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G40" s="51">
         <f>'Salida de Datos'!I6</f>
-        <v>4.8</v>
-      </c>
-      <c r="H34" s="37" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H40" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-    </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="175" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
-      <c r="W37" s="175"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="175"/>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="175"/>
-      <c r="T38" s="175"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
-      <c r="W38" s="175"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="175"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="175"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="175"/>
-      <c r="T39" s="175"/>
-      <c r="U39" s="175"/>
-      <c r="V39" s="175"/>
-      <c r="W39" s="175"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="176" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
-      <c r="O42" s="176"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="176"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="176"/>
-      <c r="U42" s="176"/>
-      <c r="V42" s="176"/>
-      <c r="W42" s="176"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="176"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
-      <c r="O43" s="176"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
-      <c r="U43" s="176"/>
-      <c r="V43" s="176"/>
-      <c r="W43" s="176"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="176"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
-      <c r="N44" s="176"/>
-      <c r="O44" s="176"/>
-      <c r="P44" s="176"/>
-      <c r="Q44" s="176"/>
-      <c r="R44" s="176"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
-      <c r="U44" s="176"/>
-      <c r="V44" s="176"/>
-      <c r="W44" s="176"/>
-      <c r="X44" s="17"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="176"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="176"/>
-      <c r="O45" s="176"/>
-      <c r="P45" s="176"/>
-      <c r="Q45" s="176"/>
-      <c r="R45" s="176"/>
-      <c r="S45" s="176"/>
-      <c r="T45" s="176"/>
-      <c r="U45" s="176"/>
-      <c r="V45" s="176"/>
-      <c r="W45" s="176"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="176"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
-      <c r="N46" s="176"/>
-      <c r="O46" s="176"/>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="176"/>
-      <c r="R46" s="176"/>
-      <c r="S46" s="176"/>
-      <c r="T46" s="176"/>
-      <c r="U46" s="176"/>
-      <c r="V46" s="176"/>
-      <c r="W46" s="176"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="52"/>
       <c r="F47" s="37"/>
       <c r="G47" s="51"/>
@@ -12244,22 +12299,21 @@
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="52"/>
       <c r="F48" s="37"/>
       <c r="G48" s="51"/>
@@ -12269,47 +12323,45 @@
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-    </row>
-    <row r="49" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="179"/>
-      <c r="L49" s="179"/>
-      <c r="M49" s="179"/>
-      <c r="N49" s="179"/>
-      <c r="O49" s="179"/>
-      <c r="P49" s="179"/>
-      <c r="Q49" s="179"/>
-      <c r="R49" s="179"/>
-      <c r="S49" s="179"/>
-      <c r="T49" s="179"/>
-      <c r="U49" s="179"/>
-      <c r="V49" s="179"/>
-      <c r="W49" s="179"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="53"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="52"/>
       <c r="F50" s="37"/>
       <c r="G50" s="51"/>
@@ -12319,49 +12371,41 @@
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="181" t="str">
-        <f>N5</f>
-        <v>NI-MC-T-XXX-2019</v>
-      </c>
-      <c r="O51" s="181"/>
-      <c r="P51" s="181"/>
-      <c r="Q51" s="181"/>
-      <c r="R51" s="181"/>
-      <c r="S51" s="181"/>
-      <c r="T51" s="181"/>
-      <c r="U51" s="181"/>
-      <c r="V51" s="181"/>
-      <c r="W51" s="181"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+    </row>
+    <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>168</v>
+      </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -12384,329 +12428,274 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-    </row>
-    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168" t="s">
-        <v>161</v>
-      </c>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q55" s="168"/>
-      <c r="R55" s="168"/>
-      <c r="S55" s="168"/>
-      <c r="T55" s="168" t="s">
-        <v>159</v>
-      </c>
-      <c r="U55" s="168"/>
-      <c r="V55" s="168"/>
-      <c r="W55" s="168"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="164" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="166"/>
-      <c r="F56" s="164" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="166"/>
-      <c r="K56" s="167" t="s">
-        <v>157</v>
-      </c>
-      <c r="L56" s="167"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="167"/>
-      <c r="O56" s="167"/>
-      <c r="P56" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q56" s="165"/>
-      <c r="R56" s="165"/>
-      <c r="S56" s="166"/>
-      <c r="T56" s="160">
-        <v>44008</v>
-      </c>
-      <c r="U56" s="161"/>
-      <c r="V56" s="161"/>
-      <c r="W56" s="162"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="164" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="166"/>
-      <c r="F57" s="164" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="L57" s="167"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="167"/>
-      <c r="P57" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q57" s="165"/>
-      <c r="R57" s="165"/>
-      <c r="S57" s="166"/>
-      <c r="T57" s="160">
-        <v>44331</v>
-      </c>
-      <c r="U57" s="161"/>
-      <c r="V57" s="161"/>
-      <c r="W57" s="162"/>
-    </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="166"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="164"/>
-      <c r="Q58" s="165"/>
-      <c r="R58" s="165"/>
-      <c r="S58" s="166"/>
-      <c r="T58" s="160"/>
-      <c r="U58" s="161"/>
-      <c r="V58" s="161"/>
-      <c r="W58" s="162"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-    </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="17"/>
-    </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="17"/>
-    </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
+      <c r="Q53" s="170"/>
+      <c r="R53" s="170"/>
+      <c r="S53" s="170"/>
+      <c r="T53" s="170"/>
+      <c r="U53" s="170"/>
+      <c r="V53" s="170"/>
+      <c r="W53" s="170"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="170"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="170"/>
+      <c r="Q54" s="170"/>
+      <c r="R54" s="170"/>
+      <c r="S54" s="170"/>
+      <c r="T54" s="170"/>
+      <c r="U54" s="170"/>
+      <c r="V54" s="170"/>
+      <c r="W54" s="170"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="170"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="170"/>
+      <c r="P55" s="170"/>
+      <c r="Q55" s="170"/>
+      <c r="R55" s="170"/>
+      <c r="S55" s="170"/>
+      <c r="T55" s="170"/>
+      <c r="U55" s="170"/>
+      <c r="V55" s="170"/>
+      <c r="W55" s="170"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="171"/>
+      <c r="R58" s="171"/>
+      <c r="S58" s="171"/>
+      <c r="T58" s="171"/>
+      <c r="U58" s="171"/>
+      <c r="V58" s="171"/>
+      <c r="W58" s="171"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="171"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="171"/>
+      <c r="V59" s="171"/>
+      <c r="W59" s="171"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="171"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="171"/>
+      <c r="R60" s="171"/>
+      <c r="S60" s="171"/>
+      <c r="T60" s="171"/>
+      <c r="U60" s="171"/>
+      <c r="V60" s="171"/>
+      <c r="W60" s="171"/>
+      <c r="X60" s="17"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="171"/>
+      <c r="Q61" s="171"/>
+      <c r="R61" s="171"/>
+      <c r="S61" s="171"/>
+      <c r="T61" s="171"/>
+      <c r="U61" s="171"/>
+      <c r="V61" s="171"/>
+      <c r="W61" s="171"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="171"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="171"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="171"/>
+      <c r="Q62" s="171"/>
+      <c r="R62" s="171"/>
+      <c r="S62" s="171"/>
+      <c r="T62" s="171"/>
+      <c r="U62" s="171"/>
+      <c r="V62" s="171"/>
+      <c r="W62" s="171"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -12723,44 +12712,40 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+    <row r="65" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="172"/>
+      <c r="B65" s="173"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="173"/>
+      <c r="F65" s="182"/>
+      <c r="G65" s="182"/>
+      <c r="H65" s="182"/>
+      <c r="I65" s="182"/>
+      <c r="J65" s="182"/>
+      <c r="K65" s="182"/>
+      <c r="L65" s="182"/>
+      <c r="M65" s="182"/>
+      <c r="N65" s="182"/>
+      <c r="O65" s="182"/>
+      <c r="P65" s="182"/>
+      <c r="Q65" s="182"/>
+      <c r="R65" s="182"/>
+      <c r="S65" s="182"/>
+      <c r="T65" s="182"/>
+      <c r="U65" s="182"/>
+      <c r="V65" s="182"/>
+      <c r="W65" s="182"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
@@ -12770,24 +12755,22 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>147</v>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -12795,19 +12778,22 @@
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="Y67" s="17"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" s="43"/>
+      <c r="N67" s="180" t="str">
+        <f>N5</f>
+        <v>NI-MC-T-XXX-2019</v>
+      </c>
+      <c r="O67" s="180"/>
+      <c r="P67" s="180"/>
+      <c r="Q67" s="180"/>
+      <c r="R67" s="180"/>
+      <c r="S67" s="180"/>
+      <c r="T67" s="180"/>
+      <c r="U67" s="180"/>
+      <c r="V67" s="180"/>
+      <c r="W67" s="180"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" s="46"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -12829,58 +12815,504 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I72" s="171" t="s">
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+    </row>
+    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="168"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="168"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="168" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="168"/>
+      <c r="H71" s="168"/>
+      <c r="I71" s="168"/>
+      <c r="J71" s="168"/>
+      <c r="K71" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="L71" s="168"/>
+      <c r="M71" s="168"/>
+      <c r="N71" s="168"/>
+      <c r="O71" s="168"/>
+      <c r="P71" s="168" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q71" s="168"/>
+      <c r="R71" s="168"/>
+      <c r="S71" s="168"/>
+      <c r="T71" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="U71" s="168"/>
+      <c r="V71" s="168"/>
+      <c r="W71" s="168"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="162"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="162"/>
+      <c r="H72" s="162"/>
+      <c r="I72" s="162"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="164" t="s">
+        <v>157</v>
+      </c>
+      <c r="L72" s="164"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="164"/>
+      <c r="O72" s="164"/>
+      <c r="P72" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q72" s="162"/>
+      <c r="R72" s="162"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="165">
+        <v>44008</v>
+      </c>
+      <c r="U72" s="166"/>
+      <c r="V72" s="166"/>
+      <c r="W72" s="167"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="161" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="L73" s="164"/>
+      <c r="M73" s="164"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="164"/>
+      <c r="P73" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q73" s="162"/>
+      <c r="R73" s="162"/>
+      <c r="S73" s="163"/>
+      <c r="T73" s="165">
+        <v>44331</v>
+      </c>
+      <c r="U73" s="166"/>
+      <c r="V73" s="166"/>
+      <c r="W73" s="167"/>
+    </row>
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="162"/>
+      <c r="H74" s="162"/>
+      <c r="I74" s="162"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="178"/>
+      <c r="M74" s="178"/>
+      <c r="N74" s="178"/>
+      <c r="O74" s="178"/>
+      <c r="P74" s="161"/>
+      <c r="Q74" s="162"/>
+      <c r="R74" s="162"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="165"/>
+      <c r="U74" s="166"/>
+      <c r="V74" s="166"/>
+      <c r="W74" s="167"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+    </row>
+    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="17"/>
+    </row>
+    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="17"/>
+    </row>
+    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="Y83" s="17"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84" s="43"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I88" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="J72" s="171"/>
-      <c r="K72" s="171"/>
-      <c r="L72" s="171"/>
-      <c r="M72" s="171"/>
-      <c r="N72" s="171"/>
-      <c r="O72" s="171"/>
-      <c r="P72" s="171"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I73" s="172" t="s">
+      <c r="J88" s="179"/>
+      <c r="K88" s="179"/>
+      <c r="L88" s="179"/>
+      <c r="M88" s="179"/>
+      <c r="N88" s="179"/>
+      <c r="O88" s="179"/>
+      <c r="P88" s="179"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I89" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J73" s="172"/>
-      <c r="K73" s="172"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="172"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="172"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I74" s="173" t="s">
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+      <c r="M89" s="175"/>
+      <c r="N89" s="175"/>
+      <c r="O89" s="175"/>
+      <c r="P89" s="175"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I90" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="J74" s="173"/>
-      <c r="K74" s="173"/>
-      <c r="L74" s="173"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="173"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="173"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I76" s="174" t="s">
+      <c r="J90" s="176"/>
+      <c r="K90" s="176"/>
+      <c r="L90" s="176"/>
+      <c r="M90" s="176"/>
+      <c r="N90" s="176"/>
+      <c r="O90" s="176"/>
+      <c r="P90" s="176"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I92" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="J76" s="174"/>
-      <c r="K76" s="174"/>
-      <c r="L76" s="174"/>
-      <c r="M76" s="174"/>
-      <c r="N76" s="174"/>
-      <c r="O76" s="174"/>
-      <c r="P76" s="174"/>
+      <c r="J92" s="177"/>
+      <c r="K92" s="177"/>
+      <c r="L92" s="177"/>
+      <c r="M92" s="177"/>
+      <c r="N92" s="177"/>
+      <c r="O92" s="177"/>
+      <c r="P92" s="177"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="95">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:R1"/>
     <mergeCell ref="S1:W1"/>
@@ -12912,66 +13344,82 @@
     <mergeCell ref="F28:K28"/>
     <mergeCell ref="L28:Q28"/>
     <mergeCell ref="R28:V28"/>
-    <mergeCell ref="N51:W51"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F49:R49"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="I72:P72"/>
-    <mergeCell ref="I73:P73"/>
-    <mergeCell ref="I74:P74"/>
-    <mergeCell ref="I76:P76"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="K55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F65:R65"/>
+    <mergeCell ref="S65:W65"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="I89:P89"/>
+    <mergeCell ref="I90:P90"/>
+    <mergeCell ref="I92:P92"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="I88:P88"/>
     <mergeCell ref="N8:R8"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="K57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="T72:W72"/>
     <mergeCell ref="N18:W18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="K56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A37:W39"/>
-    <mergeCell ref="A42:W46"/>
-    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A53:W55"/>
+    <mergeCell ref="A58:W62"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="D23:E24"/>
     <mergeCell ref="F23:K24"/>
     <mergeCell ref="L23:Q24"/>
     <mergeCell ref="R23:V24"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:V30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A83">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A84">
     <cfRule type="cellIs" priority="3" operator="equal">
       <formula>$D$25</formula>
     </cfRule>

--- a/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0224AD3-43CD-4128-B1A3-4E4E1E755861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C974E3-96CD-462F-B872-AB19A41C9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -3785,32 +3785,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3818,14 +3794,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3863,6 +3833,36 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3877,6 +3877,93 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3899,100 +3986,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4010,7 +4004,13 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6132,8 +6132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF2698-90C0-4053-8241-77F6D7A42F8D}">
   <dimension ref="A2:CN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6153,21 +6153,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="125" t="s">
         <v>821</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="F2" s="135" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="F2" s="125" t="s">
         <v>820</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="K2" s="135" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="K2" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="O2" s="114" t="s">
         <v>788</v>
       </c>
@@ -6182,17 +6182,17 @@
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="122" t="s">
         <v>817</v>
       </c>
-      <c r="B3" s="131"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="126" t="s">
         <v>816</v>
       </c>
-      <c r="G3" s="138"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="120" t="s">
         <v>140</v>
       </c>
@@ -6223,10 +6223,10 @@
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="122" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="131"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="113">
         <v>800</v>
       </c>
@@ -6234,10 +6234,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="129" t="s">
         <v>812</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="129"/>
       <c r="H4" s="111">
         <f>IF($C$6=$S$2,IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8)),IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8))*1.8)</f>
         <v>0.13</v>
@@ -6271,10 +6271,10 @@
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="122" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="131"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="113">
         <v>-180</v>
       </c>
@@ -6282,10 +6282,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="126" t="s">
         <v>810</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="117">
         <f>IF($C$3=$S$5,LOOKUP(H3,V7:V8,X7:X8),LOOKUP(H3,V7:V8,Z7:Z8))</f>
         <v>0</v>
@@ -6312,27 +6312,27 @@
       <c r="S5" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="W5" s="134" t="s">
+      <c r="W5" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134" t="s">
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" s="134"/>
+      <c r="Z5" s="121"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="122" t="s">
         <v>808</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="122" t="s">
         <v>807</v>
       </c>
-      <c r="G6" s="131"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="113">
         <v>0.1</v>
       </c>
@@ -6360,10 +6360,10 @@
       </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="122" t="s">
         <v>804</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="112">
         <v>1</v>
       </c>
@@ -6371,12 +6371,12 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="125" t="s">
         <v>803</v>
       </c>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
       <c r="U7" s="110" t="s">
         <v>802</v>
       </c>
@@ -6399,14 +6399,14 @@
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="K8" s="144" t="s">
+      <c r="K8" s="134" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144" t="s">
+      <c r="L8" s="134"/>
+      <c r="M8" s="134" t="s">
         <v>800</v>
       </c>
-      <c r="N8" s="144"/>
+      <c r="N8" s="134"/>
       <c r="U8" s="110" t="s">
         <v>799</v>
       </c>
@@ -6444,17 +6444,17 @@
       </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="136" t="s">
         <v>797</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="135" t="s">
         <v>796</v>
       </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145" t="s">
+      <c r="C10" s="135"/>
+      <c r="D10" s="135" t="s">
         <v>795</v>
       </c>
-      <c r="E10" s="145"/>
+      <c r="E10" s="135"/>
       <c r="K10" s="26" t="str">
         <f>$C$6</f>
         <v>°C</v>
@@ -6473,7 +6473,7 @@
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="107" t="s">
         <v>794</v>
       </c>
@@ -6576,19 +6576,19 @@
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="105">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="B14" s="105">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="C14" s="105">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="D14" s="105">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="E14" s="105">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="K14" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A9,IF($C$6=$S$4,273.15+'Datos Patrones'!A9,CONVERT('Datos Patrones'!A9,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A22,IF($C$6=$S$4,273.15+'Datos Patrones'!A22,CONVERT('Datos Patrones'!A22,"C","F"))))</f>
@@ -6609,19 +6609,19 @@
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B15" s="105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C15" s="105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D15" s="105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15" s="105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K15" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A10,IF($C$6=$S$4,273.15+'Datos Patrones'!A10,CONVERT('Datos Patrones'!A10,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A23,IF($C$6=$S$4,273.15+'Datos Patrones'!A23,CONVERT('Datos Patrones'!A23,"C","F"))))</f>
@@ -6642,19 +6642,19 @@
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="105">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B16" s="105">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C16" s="105">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="105">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="105">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K16" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A11,IF($C$6=$S$4,273.15+'Datos Patrones'!A11,CONVERT('Datos Patrones'!A11,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A24,IF($C$6=$S$4,273.15+'Datos Patrones'!A24,CONVERT('Datos Patrones'!A24,"C","F"))))</f>
@@ -6675,19 +6675,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="105">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="B17" s="105">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="C17" s="105">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D17" s="105">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E17" s="105">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K17" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A12,IF($C$6=$S$4,273.15+'Datos Patrones'!A12,CONVERT('Datos Patrones'!A12,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A25,IF($C$6=$S$4,273.15+'Datos Patrones'!A25,CONVERT('Datos Patrones'!A25,"C","F"))))</f>
@@ -6708,19 +6708,19 @@
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="B18" s="105">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="C18" s="105">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="D18" s="105">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E18" s="105">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="K18" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A13,IF($C$6=$S$4,273.15+'Datos Patrones'!A13,CONVERT('Datos Patrones'!A13,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A26,IF($C$6=$S$4,273.15+'Datos Patrones'!A26,CONVERT('Datos Patrones'!A26,"C","F"))))</f>
@@ -6755,7 +6755,7 @@
       <c r="E19" s="104">
         <v>0</v>
       </c>
-      <c r="K19" s="140" t="s">
+      <c r="K19" s="130" t="s">
         <v>190</v>
       </c>
       <c r="L19" s="26" t="s">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="O19" s="94">
         <f>IF($H$3=$V$8,A29,0)</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
       <c r="E20" s="104">
         <v>0</v>
       </c>
-      <c r="K20" s="140"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="26" t="s">
         <v>779</v>
       </c>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="O20" s="94">
         <f>MATCH(O19,$K$11:$K$18,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6821,7 +6821,7 @@
       <c r="E21" s="104">
         <v>0</v>
       </c>
-      <c r="K21" s="140"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="26" t="s">
         <v>778</v>
       </c>
@@ -6834,11 +6834,11 @@
       </c>
       <c r="O21" s="94">
         <f>INDEX($K$11:$K$18,O20)</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="140"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="26" t="s">
         <v>777</v>
       </c>
@@ -6851,11 +6851,11 @@
       </c>
       <c r="O22" s="94">
         <f>INDEX($K$11:$K$18,O20+1)</f>
-        <v>-80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="140"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="26" t="s">
         <v>776</v>
       </c>
@@ -6868,11 +6868,11 @@
       </c>
       <c r="O23" s="94">
         <f>INDEX($L$11:$L$18,O20)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="140"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="26" t="s">
         <v>775</v>
       </c>
@@ -6885,11 +6885,11 @@
       </c>
       <c r="O24" s="94">
         <f>INDEX($L$11:$L$18,O20+1)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="140"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="26" t="s">
         <v>774</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="O25" s="94">
         <f>O23+((O19-O21)/(O22-O21))*(O24-O23)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
       <c r="G26" s="92" t="s">
         <v>789</v>
       </c>
-      <c r="K26" s="141" t="s">
+      <c r="K26" s="131" t="s">
         <v>189</v>
       </c>
       <c r="L26" s="26" t="s">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="O26" s="94">
         <f>IF($H$3=$V$8,A30,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
       <c r="G27" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="142"/>
+      <c r="K27" s="132"/>
       <c r="L27" s="26" t="s">
         <v>779</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="O27" s="94">
         <f>MATCH(O26,$K$11:$K$18,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -7012,7 +7012,7 @@
         <f t="shared" si="0"/>
         <v>°C</v>
       </c>
-      <c r="K28" s="142"/>
+      <c r="K28" s="132"/>
       <c r="L28" s="26" t="s">
         <v>778</v>
       </c>
@@ -7025,29 +7025,29 @@
       </c>
       <c r="O28" s="94">
         <f>INDEX($K$11:$K$18,O27)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <f t="shared" ref="A29:A36" si="1">A14</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="B29" s="100">
         <f>IF($H$3=$V$7,M25,IF($H$3=$V$8,O25,0))</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C29" s="100">
         <f t="shared" ref="C29:C36" si="2">A29+B29</f>
-        <v>-180</v>
+        <v>-0.1</v>
       </c>
       <c r="D29" s="99">
         <f t="shared" ref="D29:D36" si="3">AVERAGE(B14,C14,D14,E14)</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="E29" s="98">
         <f t="shared" ref="E29:E36" si="4">C29-D29</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F29" s="97">
         <f t="shared" ref="F29:F36" si="5">_xlfn.STDEV.P(B14:E14)</f>
@@ -7057,7 +7057,7 @@
         <f t="shared" ref="G29:G36" si="6">ABS(AVERAGE(B14,D14)-AVERAGE(C14,E14))</f>
         <v>0</v>
       </c>
-      <c r="K29" s="142"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="26" t="s">
         <v>777</v>
       </c>
@@ -7070,13 +7070,13 @@
       </c>
       <c r="O29" s="94">
         <f>INDEX($K$11:$K$18,O27+1)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B30" s="100">
         <f>IF($H$3=$V$7,M32,IF($H$3=$V$8,O32,0))</f>
@@ -7084,15 +7084,15 @@
       </c>
       <c r="C30" s="100">
         <f t="shared" si="2"/>
-        <v>49.9</v>
+        <v>-0.1</v>
       </c>
       <c r="D30" s="99">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E30" s="98">
         <f t="shared" si="4"/>
-        <v>-0.10000000000000142</v>
+        <v>-0.1</v>
       </c>
       <c r="F30" s="97">
         <f t="shared" si="5"/>
@@ -7102,7 +7102,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K30" s="142"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="26" t="s">
         <v>776</v>
       </c>
@@ -7121,23 +7121,23 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B31" s="100">
         <f>IF($H$3=$V$7,M39,IF($H$3=$V$8,O39,0))</f>
-        <v>-0.15000000000000002</v>
+        <v>-0.1</v>
       </c>
       <c r="C31" s="100">
         <f t="shared" si="2"/>
-        <v>199.85</v>
+        <v>-0.1</v>
       </c>
       <c r="D31" s="99">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E31" s="98">
         <f t="shared" si="4"/>
-        <v>-0.15000000000000568</v>
+        <v>-0.1</v>
       </c>
       <c r="F31" s="97">
         <f t="shared" si="5"/>
@@ -7147,7 +7147,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K31" s="142"/>
+      <c r="K31" s="132"/>
       <c r="L31" s="26" t="s">
         <v>775</v>
       </c>
@@ -7166,23 +7166,23 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="B32" s="100">
         <f>IF($H$3=$V$7,M46,IF($H$3=$V$8,O46,0))</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C32" s="100">
         <f t="shared" si="2"/>
-        <v>349.8</v>
+        <v>-0.1</v>
       </c>
       <c r="D32" s="99">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E32" s="98">
         <f t="shared" si="4"/>
-        <v>-0.19999999999998863</v>
+        <v>-0.1</v>
       </c>
       <c r="F32" s="97">
         <f t="shared" si="5"/>
@@ -7192,7 +7192,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K32" s="143"/>
+      <c r="K32" s="133"/>
       <c r="L32" s="26" t="s">
         <v>774</v>
       </c>
@@ -7211,23 +7211,23 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="B33" s="100">
         <f>IF($H$3=$V$7,M53,IF($H$3=$V$8,O53,0))</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C33" s="100">
         <f t="shared" si="2"/>
-        <v>749.8</v>
+        <v>-0.1</v>
       </c>
       <c r="D33" s="99">
         <f t="shared" si="3"/>
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E33" s="98">
         <f t="shared" si="4"/>
-        <v>-2.2000000000000455</v>
+        <v>-0.1</v>
       </c>
       <c r="F33" s="97">
         <f t="shared" si="5"/>
@@ -7237,7 +7237,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K33" s="134" t="s">
+      <c r="K33" s="121" t="s">
         <v>188</v>
       </c>
       <c r="L33" s="26" t="s">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="O33" s="94">
         <f>IF($H$3=$V$8,A31,0)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K34" s="134"/>
+      <c r="K34" s="121"/>
       <c r="L34" s="26" t="s">
         <v>779</v>
       </c>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O34" s="94">
         <f>MATCH(O33,$K$11:$K$18,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -7329,7 +7329,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K35" s="134"/>
+      <c r="K35" s="121"/>
       <c r="L35" s="26" t="s">
         <v>778</v>
       </c>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="O35" s="94">
         <f>INDEX($K$11:$K$18,O34)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -7374,7 +7374,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K36" s="134"/>
+      <c r="K36" s="121"/>
       <c r="L36" s="26" t="s">
         <v>777</v>
       </c>
@@ -7387,11 +7387,11 @@
       </c>
       <c r="O36" s="94">
         <f>INDEX($K$11:$K$18,O34+1)</f>
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K37" s="134"/>
+      <c r="K37" s="121"/>
       <c r="L37" s="26" t="s">
         <v>776</v>
       </c>
@@ -7408,17 +7408,17 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="143" t="s">
         <v>783</v>
       </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="K38" s="134"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="K38" s="121"/>
       <c r="L38" s="26" t="s">
         <v>775</v>
       </c>
@@ -7431,31 +7431,31 @@
       </c>
       <c r="O38" s="94">
         <f>INDEX($L$11:$L$18,O34+1)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="121" t="s">
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F39" s="121" t="s">
+      <c r="F39" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G39" s="121" t="s">
+      <c r="G39" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H39" s="121" t="s">
+      <c r="H39" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="K39" s="134"/>
+      <c r="K39" s="121"/>
       <c r="L39" s="26" t="s">
         <v>774</v>
       </c>
@@ -7468,19 +7468,19 @@
       </c>
       <c r="O39" s="94">
         <f>O37+((O33-O35)/(O36-O35))*(O38-O37)</f>
-        <v>-0.15000000000000002</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="K40" s="134" t="s">
+      <c r="A40" s="142"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="K40" s="121" t="s">
         <v>187</v>
       </c>
       <c r="L40" s="26" t="s">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="O40" s="94">
         <f>IF($H$3=$V$8,A32,0)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
       <c r="D41" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -7522,7 +7522,7 @@
         <f t="shared" ref="H41:H46" si="8">(G41/SUM($G$41:$G$46))*100</f>
         <v>16.99156952319067</v>
       </c>
-      <c r="K41" s="134"/>
+      <c r="K41" s="121"/>
       <c r="L41" s="26" t="s">
         <v>779</v>
       </c>
@@ -7535,15 +7535,15 @@
       </c>
       <c r="O41" s="94">
         <f>MATCH(O40,$K$11:$K$18,1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K42" s="134"/>
+      <c r="K42" s="121"/>
       <c r="L42" s="26" t="s">
         <v>778</v>
       </c>
@@ -7576,15 +7576,15 @@
       </c>
       <c r="O42" s="94">
         <f>INDEX($K$11:$K$18,O41)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -7604,7 +7604,7 @@
         <f t="shared" si="8"/>
         <v>7.5462209524372117</v>
       </c>
-      <c r="K43" s="134"/>
+      <c r="K43" s="121"/>
       <c r="L43" s="26" t="s">
         <v>777</v>
       </c>
@@ -7617,15 +7617,15 @@
       </c>
       <c r="O43" s="94">
         <f>INDEX($K$11:$K$18,O41+1)</f>
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="90">
         <f>F29</f>
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K44" s="134"/>
+      <c r="K44" s="121"/>
       <c r="L44" s="26" t="s">
         <v>776</v>
       </c>
@@ -7658,15 +7658,15 @@
       </c>
       <c r="O44" s="94">
         <f>INDEX($L$11:$L$18,O41)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
       <c r="D45" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -7686,7 +7686,7 @@
         <f t="shared" si="8"/>
         <v>75.462209524372113</v>
       </c>
-      <c r="K45" s="134"/>
+      <c r="K45" s="121"/>
       <c r="L45" s="26" t="s">
         <v>775</v>
       </c>
@@ -7699,15 +7699,15 @@
       </c>
       <c r="O45" s="94">
         <f>INDEX($L$11:$L$18,O41+1)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="90">
         <f>G29</f>
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K46" s="134"/>
+      <c r="K46" s="121"/>
       <c r="L46" s="26" t="s">
         <v>774</v>
       </c>
@@ -7740,18 +7740,18 @@
       </c>
       <c r="O46" s="94">
         <f>O44+((O40-O42)/(O43-O42))*(O45-O44)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="88">
         <f>SQRT(SUMSQ(G41:G46))</f>
         <v>0.29730736059954299</v>
@@ -7760,7 +7760,7 @@
         <f>SUM(H41:H46)</f>
         <v>100</v>
       </c>
-      <c r="K47" s="134" t="s">
+      <c r="K47" s="121" t="s">
         <v>186</v>
       </c>
       <c r="L47" s="26" t="s">
@@ -7775,23 +7775,23 @@
       </c>
       <c r="O47" s="94">
         <f>IF($H$3=$V$8,A33,0)</f>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="86">
         <f>(2*G47)*2.5</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="K48" s="134"/>
+      <c r="K48" s="121"/>
       <c r="L48" s="26" t="s">
         <v>779</v>
       </c>
@@ -7804,11 +7804,11 @@
       </c>
       <c r="O48" s="94">
         <f>MATCH(O47,$K$11:$K$18,1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="134"/>
+      <c r="K49" s="121"/>
       <c r="L49" s="26" t="s">
         <v>778</v>
       </c>
@@ -7821,21 +7821,21 @@
       </c>
       <c r="O49" s="94">
         <f>INDEX($K$11:$K$18,O48)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="143" t="s">
         <v>782</v>
       </c>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="K50" s="134"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="K50" s="121"/>
       <c r="L50" s="26" t="s">
         <v>777</v>
       </c>
@@ -7848,31 +7848,31 @@
       </c>
       <c r="O50" s="94">
         <f>INDEX($K$11:$K$18,O48+1)</f>
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="121" t="s">
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E51" s="121" t="s">
+      <c r="E51" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F51" s="121" t="s">
+      <c r="F51" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G51" s="121" t="s">
+      <c r="G51" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H51" s="121" t="s">
+      <c r="H51" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="K51" s="134"/>
+      <c r="K51" s="121"/>
       <c r="L51" s="26" t="s">
         <v>776</v>
       </c>
@@ -7885,19 +7885,19 @@
       </c>
       <c r="O51" s="94">
         <f>INDEX($L$11:$L$18,O48)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="K52" s="134"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="K52" s="121"/>
       <c r="L52" s="26" t="s">
         <v>775</v>
       </c>
@@ -7910,15 +7910,15 @@
       </c>
       <c r="O52" s="94">
         <f>INDEX($L$11:$L$18,O48+1)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="90">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -7936,7 +7936,7 @@
         <f t="shared" ref="H53:H58" si="10">(G53/SUM($G$41:$G$46))*100</f>
         <v>0.39211314284286158</v>
       </c>
-      <c r="K53" s="134"/>
+      <c r="K53" s="121"/>
       <c r="L53" s="26" t="s">
         <v>774</v>
       </c>
@@ -7949,15 +7949,15 @@
       </c>
       <c r="O53" s="94">
         <f>O51+((O47-O49)/(O50-O49))*(O52-O51)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B54" s="128"/>
-      <c r="C54" s="129"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="141"/>
       <c r="D54" s="90">
         <v>0</v>
       </c>
@@ -7976,7 +7976,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K54" s="134" t="s">
+      <c r="K54" s="121" t="s">
         <v>185</v>
       </c>
       <c r="L54" s="26" t="s">
@@ -7995,11 +7995,11 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="90">
         <v>0.1</v>
       </c>
@@ -8018,7 +8018,7 @@
         <f t="shared" si="10"/>
         <v>7.5462209524372117</v>
       </c>
-      <c r="K55" s="134"/>
+      <c r="K55" s="121"/>
       <c r="L55" s="26" t="s">
         <v>779</v>
       </c>
@@ -8035,11 +8035,11 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="90">
         <f>F30</f>
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K56" s="134"/>
+      <c r="K56" s="121"/>
       <c r="L56" s="26" t="s">
         <v>778</v>
       </c>
@@ -8076,11 +8076,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="121" t="s">
+      <c r="A57" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8100,7 +8100,7 @@
         <f t="shared" si="10"/>
         <v>75.462209524372113</v>
       </c>
-      <c r="K57" s="134"/>
+      <c r="K57" s="121"/>
       <c r="L57" s="26" t="s">
         <v>777</v>
       </c>
@@ -8117,11 +8117,11 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="90">
         <f>G30</f>
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K58" s="134"/>
+      <c r="K58" s="121"/>
       <c r="L58" s="26" t="s">
         <v>776</v>
       </c>
@@ -8158,14 +8158,14 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="88">
         <f>SQRT(SUMSQ(G53:G58))</f>
         <v>0.2901187975065847</v>
@@ -8174,7 +8174,7 @@
         <f>SUM(H53:H58)</f>
         <v>83.400543619652183</v>
       </c>
-      <c r="K59" s="134"/>
+      <c r="K59" s="121"/>
       <c r="L59" s="26" t="s">
         <v>775</v>
       </c>
@@ -8191,19 +8191,19 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B60" s="125"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
       <c r="G60" s="86">
         <f>(2*G59)*2.5</f>
         <v>1.4505939875329235</v>
       </c>
-      <c r="K60" s="134"/>
+      <c r="K60" s="121"/>
       <c r="L60" s="26" t="s">
         <v>774</v>
       </c>
@@ -8220,7 +8220,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K61" s="134" t="s">
+      <c r="K61" s="121" t="s">
         <v>184</v>
       </c>
       <c r="L61" s="26" t="s">
@@ -8239,17 +8239,17 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="143" t="s">
         <v>781</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="K62" s="134"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="K62" s="121"/>
       <c r="L62" s="26" t="s">
         <v>779</v>
       </c>
@@ -8266,27 +8266,27 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B63" s="133"/>
-      <c r="C63" s="133"/>
-      <c r="D63" s="121" t="s">
+      <c r="B63" s="142"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E63" s="121" t="s">
+      <c r="E63" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G63" s="121" t="s">
+      <c r="G63" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H63" s="121" t="s">
+      <c r="H63" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="K63" s="134"/>
+      <c r="K63" s="121"/>
       <c r="L63" s="26" t="s">
         <v>778</v>
       </c>
@@ -8303,15 +8303,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="133"/>
-      <c r="B64" s="133"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="121"/>
-      <c r="K64" s="134"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="K64" s="121"/>
       <c r="L64" s="26" t="s">
         <v>777</v>
       </c>
@@ -8328,11 +8328,11 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="90">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -8350,7 +8350,7 @@
         <f t="shared" ref="H65:H70" si="12">(G65/SUM($G$41:$G$46))*100</f>
         <v>0.39211314284286158</v>
       </c>
-      <c r="K65" s="134"/>
+      <c r="K65" s="121"/>
       <c r="L65" s="26" t="s">
         <v>776</v>
       </c>
@@ -8367,11 +8367,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="127" t="s">
+      <c r="A66" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B66" s="128"/>
-      <c r="C66" s="129"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="141"/>
       <c r="D66" s="90">
         <v>0</v>
       </c>
@@ -8390,7 +8390,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="134"/>
+      <c r="K66" s="121"/>
       <c r="L66" s="26" t="s">
         <v>775</v>
       </c>
@@ -8407,11 +8407,11 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="121" t="s">
+      <c r="A67" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B67" s="121"/>
-      <c r="C67" s="121"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="90">
         <v>0.1</v>
       </c>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="I67" s="93"/>
       <c r="J67" s="95"/>
-      <c r="K67" s="134"/>
+      <c r="K67" s="121"/>
       <c r="L67" s="26" t="s">
         <v>774</v>
       </c>
@@ -8449,11 +8449,11 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="124"/>
       <c r="D68" s="90">
         <f>F31</f>
         <v>0</v>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="I68" s="93"/>
       <c r="J68" s="95"/>
-      <c r="K68" s="134" t="s">
+      <c r="K68" s="121" t="s">
         <v>183</v>
       </c>
       <c r="L68" s="26" t="s">
@@ -8494,11 +8494,11 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="121" t="s">
+      <c r="A69" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B69" s="121"/>
-      <c r="C69" s="121"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
       <c r="D69" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8519,7 +8519,7 @@
         <v>75.462209524372113</v>
       </c>
       <c r="I69" s="93"/>
-      <c r="K69" s="134"/>
+      <c r="K69" s="121"/>
       <c r="L69" s="26" t="s">
         <v>779</v>
       </c>
@@ -8536,11 +8536,11 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B70" s="121"/>
-      <c r="C70" s="121"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="90">
         <f>G31</f>
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="93"/>
-      <c r="K70" s="134"/>
+      <c r="K70" s="121"/>
       <c r="L70" s="26" t="s">
         <v>778</v>
       </c>
@@ -8578,14 +8578,14 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="122" t="s">
+      <c r="A71" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
       <c r="G71" s="88">
         <f>SQRT(SUMSQ(G65:G70))</f>
         <v>0.2901187975065847</v>
@@ -8595,7 +8595,7 @@
         <v>83.400543619652183</v>
       </c>
       <c r="I71" s="93"/>
-      <c r="K71" s="134"/>
+      <c r="K71" s="121"/>
       <c r="L71" s="26" t="s">
         <v>777</v>
       </c>
@@ -8612,20 +8612,20 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="124" t="s">
+      <c r="A72" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B72" s="125"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
       <c r="G72" s="86">
         <f>(2*G71)*2.5</f>
         <v>1.4505939875329235</v>
       </c>
       <c r="I72" s="93"/>
-      <c r="K72" s="134"/>
+      <c r="K72" s="121"/>
       <c r="L72" s="26" t="s">
         <v>776</v>
       </c>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I73" s="93"/>
-      <c r="K73" s="134"/>
+      <c r="K73" s="121"/>
       <c r="L73" s="26" t="s">
         <v>775</v>
       </c>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I74" s="93"/>
-      <c r="K74" s="134"/>
+      <c r="K74" s="121"/>
       <c r="L74" s="26" t="s">
         <v>774</v>
       </c>
@@ -8681,94 +8681,94 @@
       <c r="I75" s="93"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="143" t="s">
         <v>773</v>
       </c>
-      <c r="B76" s="132"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
       <c r="I76" s="93"/>
-      <c r="J76" s="132" t="s">
+      <c r="J76" s="143" t="s">
         <v>772</v>
       </c>
-      <c r="K76" s="132"/>
-      <c r="L76" s="132"/>
-      <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="132"/>
-      <c r="P76" s="132"/>
-      <c r="Q76" s="132"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="143"/>
+      <c r="P76" s="143"/>
+      <c r="Q76" s="143"/>
     </row>
     <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="121" t="s">
+      <c r="B77" s="142"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E77" s="121" t="s">
+      <c r="E77" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F77" s="121" t="s">
+      <c r="F77" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G77" s="121" t="s">
+      <c r="G77" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H77" s="121" t="s">
+      <c r="H77" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="J77" s="121" t="s">
+      <c r="J77" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="K77" s="133"/>
-      <c r="L77" s="133"/>
-      <c r="M77" s="121" t="s">
+      <c r="K77" s="142"/>
+      <c r="L77" s="142"/>
+      <c r="M77" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="N77" s="121" t="s">
+      <c r="N77" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="O77" s="121" t="s">
+      <c r="O77" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="P77" s="121" t="s">
+      <c r="P77" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="Q77" s="121" t="s">
+      <c r="Q77" s="124" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="133"/>
-      <c r="B78" s="133"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="133"/>
-      <c r="L78" s="133"/>
-      <c r="M78" s="121"/>
-      <c r="N78" s="121"/>
-      <c r="O78" s="121"/>
-      <c r="P78" s="121"/>
-      <c r="Q78" s="121"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="142"/>
+      <c r="L78" s="142"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="124"/>
+      <c r="P78" s="124"/>
+      <c r="Q78" s="124"/>
     </row>
     <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="121" t="s">
+      <c r="A79" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -8787,11 +8787,11 @@
         <f t="shared" ref="H79:H84" si="14">(G79/SUM($G$41:$G$46))*100</f>
         <v>16.99156952319067</v>
       </c>
-      <c r="J79" s="121" t="s">
+      <c r="J79" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="K79" s="121"/>
-      <c r="L79" s="121"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
       <c r="M79" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -8812,11 +8812,11 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="127" t="s">
+      <c r="A80" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B80" s="128"/>
-      <c r="C80" s="129"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="141"/>
       <c r="D80" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -8836,11 +8836,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J80" s="127" t="s">
+      <c r="J80" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="K80" s="128"/>
-      <c r="L80" s="129"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="141"/>
       <c r="M80" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -8862,11 +8862,11 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="121" t="s">
+      <c r="A81" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -8886,11 +8886,11 @@
         <f t="shared" si="14"/>
         <v>7.5462209524372117</v>
       </c>
-      <c r="J81" s="121" t="s">
+      <c r="J81" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="K81" s="121"/>
-      <c r="L81" s="121"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
       <c r="M81" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -8912,11 +8912,11 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B82" s="121"/>
-      <c r="C82" s="121"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="90">
         <f>F32</f>
         <v>0</v>
@@ -8936,11 +8936,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J82" s="121" t="s">
+      <c r="J82" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="K82" s="121"/>
-      <c r="L82" s="121"/>
+      <c r="K82" s="124"/>
+      <c r="L82" s="124"/>
       <c r="M82" s="90">
         <f>F34</f>
         <v>0</v>
@@ -8962,11 +8962,11 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="121" t="s">
+      <c r="A83" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8986,11 +8986,11 @@
         <f t="shared" si="14"/>
         <v>75.462209524372113</v>
       </c>
-      <c r="J83" s="121" t="s">
+      <c r="J83" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="K83" s="121"/>
-      <c r="L83" s="121"/>
+      <c r="K83" s="124"/>
+      <c r="L83" s="124"/>
       <c r="M83" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9012,11 +9012,11 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="121" t="s">
+      <c r="A84" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B84" s="121"/>
-      <c r="C84" s="121"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="90">
         <f>G32</f>
         <v>0</v>
@@ -9036,11 +9036,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J84" s="121" t="s">
+      <c r="J84" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="K84" s="121"/>
-      <c r="L84" s="121"/>
+      <c r="K84" s="124"/>
+      <c r="L84" s="124"/>
       <c r="M84" s="90">
         <f>G34</f>
         <v>0</v>
@@ -9062,14 +9062,14 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="138"/>
+      <c r="E85" s="138"/>
+      <c r="F85" s="138"/>
       <c r="G85" s="88">
         <f>SQRT(SUMSQ(G79:G84))</f>
         <v>0.29730736059954299</v>
@@ -9078,14 +9078,14 @@
         <f>SUM(H79:H84)</f>
         <v>100</v>
       </c>
-      <c r="J85" s="122" t="s">
+      <c r="J85" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="K85" s="122"/>
-      <c r="L85" s="122"/>
-      <c r="M85" s="123"/>
-      <c r="N85" s="123"/>
-      <c r="O85" s="123"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="138"/>
+      <c r="N85" s="138"/>
+      <c r="O85" s="138"/>
       <c r="P85" s="88">
         <f>SQRT(SUMSQ(P79:P84))</f>
         <v>0.29730736059954299</v>
@@ -9096,119 +9096,119 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="124" t="s">
+      <c r="A86" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="123"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="138"/>
       <c r="G86" s="86">
         <f>(2*G85)*2.5</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="J86" s="124" t="s">
+      <c r="J86" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="K86" s="125"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="123"/>
-      <c r="N86" s="123"/>
-      <c r="O86" s="123"/>
+      <c r="K86" s="145"/>
+      <c r="L86" s="146"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="138"/>
       <c r="P86" s="86">
         <f>(2*P85)*2.5</f>
         <v>1.4865368029977151</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="132" t="s">
+      <c r="A88" s="143" t="s">
         <v>771</v>
       </c>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="132"/>
-      <c r="J88" s="132" t="s">
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="J88" s="143" t="s">
         <v>770</v>
       </c>
-      <c r="K88" s="132"/>
-      <c r="L88" s="132"/>
-      <c r="M88" s="132"/>
-      <c r="N88" s="132"/>
-      <c r="O88" s="132"/>
-      <c r="P88" s="132"/>
-      <c r="Q88" s="132"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="143"/>
+      <c r="M88" s="143"/>
+      <c r="N88" s="143"/>
+      <c r="O88" s="143"/>
+      <c r="P88" s="143"/>
+      <c r="Q88" s="143"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="121" t="s">
+      <c r="A89" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="121" t="s">
+      <c r="B89" s="142"/>
+      <c r="C89" s="142"/>
+      <c r="D89" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E89" s="121" t="s">
+      <c r="E89" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F89" s="121" t="s">
+      <c r="F89" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G89" s="121" t="s">
+      <c r="G89" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H89" s="121" t="s">
+      <c r="H89" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="J89" s="121" t="s">
+      <c r="J89" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="K89" s="133"/>
-      <c r="L89" s="133"/>
-      <c r="M89" s="121" t="s">
+      <c r="K89" s="142"/>
+      <c r="L89" s="142"/>
+      <c r="M89" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="N89" s="121" t="s">
+      <c r="N89" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="O89" s="121" t="s">
+      <c r="O89" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="P89" s="121" t="s">
+      <c r="P89" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="Q89" s="121" t="s">
+      <c r="Q89" s="124" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="121"/>
-      <c r="E90" s="121"/>
-      <c r="F90" s="121"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="121"/>
-      <c r="J90" s="133"/>
-      <c r="K90" s="133"/>
-      <c r="L90" s="133"/>
-      <c r="M90" s="121"/>
-      <c r="N90" s="121"/>
-      <c r="O90" s="121"/>
-      <c r="P90" s="121"/>
-      <c r="Q90" s="121"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="142"/>
+      <c r="L90" s="142"/>
+      <c r="M90" s="124"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="124"/>
+      <c r="P90" s="124"/>
+      <c r="Q90" s="124"/>
     </row>
     <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="121" t="s">
+      <c r="A91" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B91" s="121"/>
-      <c r="C91" s="121"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
       <c r="D91" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9227,11 +9227,11 @@
         <f t="shared" ref="H91:H96" si="18">(G91/SUM($G$41:$G$46))*100</f>
         <v>16.99156952319067</v>
       </c>
-      <c r="J91" s="121" t="s">
+      <c r="J91" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="K91" s="121"/>
-      <c r="L91" s="121"/>
+      <c r="K91" s="124"/>
+      <c r="L91" s="124"/>
       <c r="M91" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9252,11 +9252,11 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="127" t="s">
+      <c r="A92" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B92" s="128"/>
-      <c r="C92" s="129"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="141"/>
       <c r="D92" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9276,11 +9276,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J92" s="127" t="s">
+      <c r="J92" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="K92" s="128"/>
-      <c r="L92" s="129"/>
+      <c r="K92" s="140"/>
+      <c r="L92" s="141"/>
       <c r="M92" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9302,11 +9302,11 @@
       </c>
     </row>
     <row r="93" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="121" t="s">
+      <c r="A93" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B93" s="121"/>
-      <c r="C93" s="121"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="124"/>
       <c r="D93" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9326,11 +9326,11 @@
         <f t="shared" si="18"/>
         <v>7.5462209524372117</v>
       </c>
-      <c r="J93" s="121" t="s">
+      <c r="J93" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="K93" s="121"/>
-      <c r="L93" s="121"/>
+      <c r="K93" s="124"/>
+      <c r="L93" s="124"/>
       <c r="M93" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9352,11 +9352,11 @@
       </c>
     </row>
     <row r="94" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="121" t="s">
+      <c r="A94" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="90">
         <f>F33</f>
         <v>0</v>
@@ -9376,11 +9376,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J94" s="121" t="s">
+      <c r="J94" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="K94" s="121"/>
-      <c r="L94" s="121"/>
+      <c r="K94" s="124"/>
+      <c r="L94" s="124"/>
       <c r="M94" s="90">
         <f>F35</f>
         <v>0</v>
@@ -9402,11 +9402,11 @@
       </c>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="121" t="s">
+      <c r="A95" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B95" s="121"/>
-      <c r="C95" s="121"/>
+      <c r="B95" s="124"/>
+      <c r="C95" s="124"/>
       <c r="D95" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9426,11 +9426,11 @@
         <f t="shared" si="18"/>
         <v>75.462209524372113</v>
       </c>
-      <c r="J95" s="121" t="s">
+      <c r="J95" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="K95" s="121"/>
-      <c r="L95" s="121"/>
+      <c r="K95" s="124"/>
+      <c r="L95" s="124"/>
       <c r="M95" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9452,11 +9452,11 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="121" t="s">
+      <c r="A96" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B96" s="121"/>
-      <c r="C96" s="121"/>
+      <c r="B96" s="124"/>
+      <c r="C96" s="124"/>
       <c r="D96" s="90">
         <f>G33</f>
         <v>0</v>
@@ -9476,11 +9476,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J96" s="121" t="s">
+      <c r="J96" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="K96" s="121"/>
-      <c r="L96" s="121"/>
+      <c r="K96" s="124"/>
+      <c r="L96" s="124"/>
       <c r="M96" s="90">
         <f>G35</f>
         <v>0</v>
@@ -9502,14 +9502,14 @@
       </c>
     </row>
     <row r="97" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="122" t="s">
+      <c r="A97" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B97" s="122"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
+      <c r="B97" s="137"/>
+      <c r="C97" s="137"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
       <c r="G97" s="88">
         <f>SQRT(SUMSQ(G91:G96))</f>
         <v>0.29730736059954299</v>
@@ -9518,14 +9518,14 @@
         <f>SUM(H91:H96)</f>
         <v>100</v>
       </c>
-      <c r="J97" s="122" t="s">
+      <c r="J97" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="K97" s="122"/>
-      <c r="L97" s="122"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="123"/>
-      <c r="O97" s="123"/>
+      <c r="K97" s="137"/>
+      <c r="L97" s="137"/>
+      <c r="M97" s="138"/>
+      <c r="N97" s="138"/>
+      <c r="O97" s="138"/>
       <c r="P97" s="88">
         <f>SQRT(SUMSQ(P91:P96))</f>
         <v>0.29730736059954299</v>
@@ -9536,81 +9536,81 @@
       </c>
     </row>
     <row r="98" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="124" t="s">
+      <c r="A98" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B98" s="125"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
+      <c r="B98" s="145"/>
+      <c r="C98" s="146"/>
+      <c r="D98" s="138"/>
+      <c r="E98" s="138"/>
+      <c r="F98" s="138"/>
       <c r="G98" s="86">
         <f>(2*G97)*2.5</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="J98" s="124" t="s">
+      <c r="J98" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="K98" s="125"/>
-      <c r="L98" s="126"/>
-      <c r="M98" s="123"/>
-      <c r="N98" s="123"/>
-      <c r="O98" s="123"/>
+      <c r="K98" s="145"/>
+      <c r="L98" s="146"/>
+      <c r="M98" s="138"/>
+      <c r="N98" s="138"/>
+      <c r="O98" s="138"/>
       <c r="P98" s="86">
         <f>(2*P97)*2.5</f>
         <v>1.4865368029977151</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="132" t="s">
+      <c r="A100" s="143" t="s">
         <v>769</v>
       </c>
-      <c r="B100" s="132"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="132"/>
-      <c r="F100" s="132"/>
-      <c r="G100" s="132"/>
-      <c r="H100" s="132"/>
+      <c r="B100" s="143"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="143"/>
+      <c r="E100" s="143"/>
+      <c r="F100" s="143"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="143"/>
     </row>
     <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="121" t="s">
+      <c r="A101" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="B101" s="133"/>
-      <c r="C101" s="133"/>
-      <c r="D101" s="121" t="s">
+      <c r="B101" s="142"/>
+      <c r="C101" s="142"/>
+      <c r="D101" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="E101" s="121" t="s">
+      <c r="E101" s="124" t="s">
         <v>766</v>
       </c>
-      <c r="F101" s="121" t="s">
+      <c r="F101" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="G101" s="121" t="s">
+      <c r="G101" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="H101" s="121" t="s">
+      <c r="H101" s="124" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="133"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="133"/>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="121"/>
+      <c r="A102" s="142"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="142"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="124"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
     </row>
     <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="121" t="s">
+      <c r="A103" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="B103" s="121"/>
-      <c r="C103" s="121"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9631,11 +9631,11 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="127" t="s">
+      <c r="A104" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="B104" s="128"/>
-      <c r="C104" s="129"/>
+      <c r="B104" s="140"/>
+      <c r="C104" s="141"/>
       <c r="D104" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9657,11 +9657,11 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="121" t="s">
+      <c r="A105" s="124" t="s">
         <v>760</v>
       </c>
-      <c r="B105" s="121"/>
-      <c r="C105" s="121"/>
+      <c r="B105" s="124"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9683,11 +9683,11 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="121" t="s">
+      <c r="A106" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B106" s="121"/>
-      <c r="C106" s="121"/>
+      <c r="B106" s="124"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="90">
         <f>F36</f>
         <v>0</v>
@@ -9709,11 +9709,11 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="121" t="s">
+      <c r="A107" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B107" s="121"/>
-      <c r="C107" s="121"/>
+      <c r="B107" s="124"/>
+      <c r="C107" s="124"/>
       <c r="D107" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9735,11 +9735,11 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="121" t="s">
+      <c r="A108" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B108" s="121"/>
-      <c r="C108" s="121"/>
+      <c r="B108" s="124"/>
+      <c r="C108" s="124"/>
       <c r="D108" s="90">
         <f>G36</f>
         <v>0</v>
@@ -9761,14 +9761,14 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="122" t="s">
+      <c r="A109" s="137" t="s">
         <v>756</v>
       </c>
-      <c r="B109" s="122"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="123"/>
+      <c r="B109" s="137"/>
+      <c r="C109" s="137"/>
+      <c r="D109" s="138"/>
+      <c r="E109" s="138"/>
+      <c r="F109" s="138"/>
       <c r="G109" s="88">
         <f>SQRT(SUMSQ(G103:G108))</f>
         <v>0.29730736059954299</v>
@@ -9779,14 +9779,14 @@
       </c>
     </row>
     <row r="110" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="124" t="s">
+      <c r="A110" s="144" t="s">
         <v>755</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123"/>
+      <c r="B110" s="145"/>
+      <c r="C110" s="146"/>
+      <c r="D110" s="138"/>
+      <c r="E110" s="138"/>
+      <c r="F110" s="138"/>
       <c r="G110" s="86">
         <f>(2*G109)*2.5</f>
         <v>1.4865368029977151</v>
@@ -9818,6 +9818,138 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="156">
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F72"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F86"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="M85:O86"/>
+    <mergeCell ref="J89:L90"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="M97:O98"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="D97:F98"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="K61:K67"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="K47:K53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="J76:Q76"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="D109:F110"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A103:C103"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="A7:B7"/>
@@ -9842,138 +9974,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="K40:K46"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="K61:K67"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="K54:K60"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="K47:K53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="J76:Q76"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="D109:F110"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="D97:F98"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="M97:O98"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="J88:Q88"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F86"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="M85:O86"/>
-    <mergeCell ref="J89:L90"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F72"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:B12">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
@@ -10035,12 +10035,12 @@
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
       <c r="D4" s="149"/>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
@@ -10120,15 +10120,15 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>'Entrada de Datos'!C29</f>
-        <v>-180</v>
+        <v>-0.1</v>
       </c>
       <c r="B8" s="28">
         <f>'Entrada de Datos'!D29</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="C8" s="28">
         <f>'Entrada de Datos'!E29</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D8" s="28">
         <f>'Entrada de Datos'!G48</f>
@@ -10138,15 +10138,15 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>'Entrada de Datos'!C30</f>
-        <v>49.9</v>
+        <v>-0.1</v>
       </c>
       <c r="B9" s="28">
         <f>'Entrada de Datos'!D30</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" s="28">
         <f>'Entrada de Datos'!E30</f>
-        <v>-0.10000000000000142</v>
+        <v>-0.1</v>
       </c>
       <c r="D9" s="28">
         <f>'Entrada de Datos'!G60</f>
@@ -10159,15 +10159,15 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>'Entrada de Datos'!C31</f>
-        <v>199.85</v>
+        <v>-0.1</v>
       </c>
       <c r="B10" s="28">
         <f>'Entrada de Datos'!D31</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C10" s="28">
         <f>'Entrada de Datos'!E31</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.1</v>
       </c>
       <c r="D10" s="28">
         <f>'Entrada de Datos'!G72</f>
@@ -10180,15 +10180,15 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>'Entrada de Datos'!C32</f>
-        <v>349.8</v>
+        <v>-0.1</v>
       </c>
       <c r="B11" s="28">
         <f>'Entrada de Datos'!D32</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="C11" s="28">
         <f>'Entrada de Datos'!E32</f>
-        <v>-0.19999999999998863</v>
+        <v>-0.1</v>
       </c>
       <c r="D11" s="28">
         <f>'Entrada de Datos'!G86</f>
@@ -10202,15 +10202,15 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>'Entrada de Datos'!C33</f>
-        <v>749.8</v>
+        <v>-0.1</v>
       </c>
       <c r="B12" s="28">
         <f>'Entrada de Datos'!D33</f>
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="C12" s="28">
         <f>'Entrada de Datos'!E33</f>
-        <v>-2.2000000000000455</v>
+        <v>-0.1</v>
       </c>
       <c r="D12" s="28">
         <f>'Entrada de Datos'!G98</f>
@@ -10329,15 +10329,15 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A8,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A8,"F","K"),A8))</f>
-        <v>93.149999999999977</v>
+        <v>273.04999999999995</v>
       </c>
       <c r="B22" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B8,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B8,"F","K"),B8))</f>
-        <v>93.149999999999977</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="C22" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C8)*1.8,C8)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D22" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D8)*1.8,D8)</f>
@@ -10348,15 +10348,15 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A9,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A9,"F","K"),A9))</f>
-        <v>323.04999999999995</v>
+        <v>273.04999999999995</v>
       </c>
       <c r="B23" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B9,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B9,"F","K"),B9))</f>
-        <v>323.14999999999998</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="C23" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C9)*1.8,C9)</f>
-        <v>-0.10000000000000142</v>
+        <v>-0.1</v>
       </c>
       <c r="D23" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D9)*1.8,D9)</f>
@@ -10367,15 +10367,15 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A10,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A10,"F","K"),A10))</f>
-        <v>473</v>
+        <v>273.04999999999995</v>
       </c>
       <c r="B24" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B10,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B10,"F","K"),B10))</f>
-        <v>473.15</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="C24" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C10)*1.8,C10)</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.1</v>
       </c>
       <c r="D24" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D10)*1.8,D10)</f>
@@ -10386,15 +10386,15 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A11,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A11,"F","K"),A11))</f>
-        <v>622.95000000000005</v>
+        <v>273.04999999999995</v>
       </c>
       <c r="B25" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B11,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B11,"F","K"),B11))</f>
-        <v>623.15</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="C25" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C11)*1.8,C11)</f>
-        <v>-0.19999999999998863</v>
+        <v>-0.1</v>
       </c>
       <c r="D25" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D11)*1.8,D11)</f>
@@ -10405,15 +10405,15 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A12,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A12,"F","K"),A12))</f>
-        <v>1022.9499999999999</v>
+        <v>273.04999999999995</v>
       </c>
       <c r="B26" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B12,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B12,"F","K"),B12))</f>
-        <v>1025.1500000000001</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="C26" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C12)*1.8,C12)</f>
-        <v>-2.2000000000000455</v>
+        <v>-0.1</v>
       </c>
       <c r="D26" s="24">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D12)*1.8,D12)</f>
@@ -10522,16 +10522,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -10759,16 +10759,16 @@
       <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
@@ -11035,7 +11035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600CB85-6596-4159-82BB-120C84D9BD1B}">
   <dimension ref="A1:Y92"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F73" sqref="F73:J73"/>
     </sheetView>
   </sheetViews>
@@ -11065,29 +11065,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172"/>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
     </row>
     <row r="2" spans="1:25" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62"/>
@@ -11118,19 +11118,19 @@
       <c r="K5" s="56"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="169" t="str">
+      <c r="N5" s="155" t="str">
         <f>Generales!C3</f>
         <v>NI-MC-T-XXX-2019</v>
       </c>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
@@ -11147,19 +11147,19 @@
       <c r="K6" s="56"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="169" t="str">
+      <c r="N6" s="155" t="str">
         <f>Generales!C5</f>
         <v>NI-CS-</v>
       </c>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
     </row>
@@ -11178,19 +11178,19 @@
       <c r="K7" s="56"/>
       <c r="L7" s="59"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="187" t="str">
+      <c r="N7" s="156" t="str">
         <f>Generales!C7</f>
         <v>2015-08-23</v>
       </c>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
@@ -11207,14 +11207,14 @@
       <c r="K8" s="56"/>
       <c r="L8" s="59"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="160">
+      <c r="N8" s="176">
         <f ca="1">NOW()</f>
-        <v>45429.474610648147</v>
-      </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
+        <v>45432.634649884261</v>
+      </c>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
       <c r="S8" s="53"/>
       <c r="T8" s="53"/>
       <c r="U8" s="53"/>
@@ -11236,19 +11236,19 @@
       <c r="K9" s="56"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="169" t="str">
+      <c r="N9" s="155" t="str">
         <f>Generales!C9</f>
         <v>Termómetro digital</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="169"/>
-      <c r="U9" s="169"/>
-      <c r="V9" s="169"/>
-      <c r="W9" s="169"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
@@ -11265,19 +11265,19 @@
       <c r="K10" s="56"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="169" t="str">
+      <c r="N10" s="155" t="str">
         <f>Generales!C11</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="169"/>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
@@ -11294,19 +11294,19 @@
       <c r="K11" s="56"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="169" t="str">
+      <c r="N11" s="155" t="str">
         <f>Generales!C15</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="169"/>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
@@ -11323,19 +11323,19 @@
       <c r="K12" s="56"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="169" t="str">
+      <c r="N12" s="155" t="str">
         <f>Generales!C17</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="169"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -11352,19 +11352,19 @@
       <c r="K13" s="56"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="169" t="str">
+      <c r="N13" s="155" t="str">
         <f>Generales!C19</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
@@ -11381,19 +11381,19 @@
       <c r="K14" s="56"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="169" t="str">
+      <c r="N14" s="155" t="str">
         <f>Generales!C21</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
@@ -11410,19 +11410,19 @@
       <c r="K15" s="56"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="187" t="str">
+      <c r="N15" s="156" t="str">
         <f>Generales!C23</f>
         <v>5647399TRWUEL</v>
       </c>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="169"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="169"/>
-      <c r="W15" s="169"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
@@ -11439,19 +11439,19 @@
       <c r="K16" s="56"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="169" t="str">
+      <c r="N16" s="155" t="str">
         <f>Generales!C25</f>
         <v>Aivepet Nicaragua S.A.</v>
       </c>
-      <c r="O16" s="169"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="169"/>
-      <c r="T16" s="169"/>
-      <c r="U16" s="169"/>
-      <c r="V16" s="169"/>
-      <c r="W16" s="169"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
     </row>
     <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
@@ -11468,19 +11468,19 @@
       <c r="K17" s="56"/>
       <c r="L17" s="57"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="169" t="str">
+      <c r="N17" s="155" t="str">
         <f>Generales!C27</f>
         <v>XXXXXXX</v>
       </c>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="169"/>
-      <c r="W17" s="169"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
@@ -11497,31 +11497,31 @@
       <c r="K18" s="56"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="169" t="str">
+      <c r="N18" s="155" t="str">
         <f>Generales!C29</f>
         <v>XXXXXXX</v>
       </c>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="169"/>
-      <c r="T18" s="169"/>
-      <c r="U18" s="169"/>
-      <c r="V18" s="169"/>
-      <c r="W18" s="169"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="169"/>
-      <c r="S19" s="169"/>
-      <c r="T19" s="169"/>
-      <c r="U19" s="169"/>
-      <c r="V19" s="169"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
@@ -11537,44 +11537,44 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="174" t="s">
+      <c r="D22" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="174"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="180"/>
+      <c r="V22" s="180"/>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153" t="s">
+      <c r="E23" s="181"/>
+      <c r="F23" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="149" t="s">
         <v>121</v>
       </c>
@@ -11583,397 +11583,397 @@
       <c r="O23" s="149"/>
       <c r="P23" s="149"/>
       <c r="Q23" s="149"/>
-      <c r="R23" s="152" t="s">
+      <c r="R23" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="152"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
       <c r="L24" s="149"/>
       <c r="M24" s="149"/>
       <c r="N24" s="149"/>
       <c r="O24" s="149"/>
       <c r="P24" s="149"/>
       <c r="Q24" s="149"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="183" t="str">
+      <c r="D25" s="157" t="str">
         <f>'Salida de Datos'!A7</f>
         <v>°C</v>
       </c>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184" t="str">
+      <c r="E25" s="157"/>
+      <c r="F25" s="158" t="str">
         <f>'Salida de Datos'!C7</f>
         <v>°C</v>
       </c>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="184" t="str">
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="158" t="str">
         <f>'Salida de Datos'!C7</f>
         <v>°C</v>
       </c>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="183" t="str">
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="157" t="str">
         <f>'Salida de Datos'!D7</f>
         <v>°C</v>
       </c>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="159">
+      <c r="D26" s="161">
         <f>'Salida de Datos'!A8</f>
-        <v>-180</v>
-      </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161">
         <f>'Salida de Datos'!B8</f>
-        <v>-180</v>
-      </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159">
+        <v>0</v>
+      </c>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161">
         <f>'Salida de Datos'!C8</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161">
         <f>'Salida de Datos'!D8</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="159">
+      <c r="D27" s="161">
         <f>'Salida de Datos'!A9</f>
-        <v>49.9</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161">
         <f>'Salida de Datos'!B9</f>
-        <v>50</v>
-      </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159">
+        <v>0</v>
+      </c>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161">
         <f>'Salida de Datos'!C9</f>
-        <v>-0.10000000000000142</v>
-      </c>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161">
         <f>'Salida de Datos'!D9</f>
         <v>1.4505939875329235</v>
       </c>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="159">
+      <c r="D28" s="161">
         <f>'Salida de Datos'!A10</f>
-        <v>199.85</v>
-      </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161">
         <f>'Salida de Datos'!B10</f>
-        <v>200</v>
-      </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159">
+        <v>0</v>
+      </c>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161">
         <f>'Salida de Datos'!C10</f>
-        <v>-0.15000000000000568</v>
-      </c>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="161">
         <f>'Salida de Datos'!D10</f>
         <v>1.4505939875329235</v>
       </c>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="161"/>
+      <c r="V28" s="161"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="159">
+      <c r="D29" s="161">
         <f>'Salida de Datos'!A11</f>
-        <v>349.8</v>
-      </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161">
         <f>'Salida de Datos'!B11</f>
-        <v>350</v>
-      </c>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159">
+        <v>0</v>
+      </c>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161">
         <f>'Salida de Datos'!C11</f>
-        <v>-0.19999999999998863</v>
-      </c>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161">
         <f>'Salida de Datos'!D11</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
+      <c r="S29" s="161"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="161"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="159">
+      <c r="D30" s="161">
         <f>'Salida de Datos'!A12</f>
-        <v>749.8</v>
-      </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161">
         <f>'Salida de Datos'!B12</f>
-        <v>752</v>
-      </c>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159">
+        <v>0</v>
+      </c>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161">
         <f>'Salida de Datos'!C12</f>
-        <v>-2.2000000000000455</v>
-      </c>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159">
+        <v>-0.1</v>
+      </c>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="161">
         <f>'Salida de Datos'!D12</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="159"/>
+      <c r="S30" s="161"/>
+      <c r="T30" s="161"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="161"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="159">
+      <c r="D31" s="161">
         <f>'Salida de Datos'!A13</f>
         <v>-0.1</v>
       </c>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159">
+      <c r="E31" s="161"/>
+      <c r="F31" s="161">
         <f>'Salida de Datos'!B13</f>
         <v>0</v>
       </c>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159">
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161">
         <f>'Salida de Datos'!C13</f>
         <v>-0.1</v>
       </c>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159">
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="161">
         <f>'Salida de Datos'!D13</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
+      <c r="S31" s="161"/>
+      <c r="T31" s="161"/>
+      <c r="U31" s="161"/>
+      <c r="V31" s="161"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="159">
+      <c r="D32" s="161">
         <f>'Salida de Datos'!A14</f>
         <v>-0.1</v>
       </c>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159">
+      <c r="E32" s="161"/>
+      <c r="F32" s="161">
         <f>'Salida de Datos'!B14</f>
         <v>0</v>
       </c>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159">
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161">
         <f>'Salida de Datos'!C14</f>
         <v>-0.1</v>
       </c>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159">
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161">
         <f>'Salida de Datos'!D14</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
+      <c r="S32" s="161"/>
+      <c r="T32" s="161"/>
+      <c r="U32" s="161"/>
+      <c r="V32" s="161"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="159">
+      <c r="D33" s="161">
         <f>'Salida de Datos'!A15</f>
         <v>-0.1</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159">
+      <c r="E33" s="161"/>
+      <c r="F33" s="161">
         <f>'Salida de Datos'!B15</f>
         <v>0</v>
       </c>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159">
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161">
         <f>'Salida de Datos'!C15</f>
         <v>-0.1</v>
       </c>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159">
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161">
         <f>'Salida de Datos'!D15</f>
         <v>1.4865368029977151</v>
       </c>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="161"/>
+      <c r="U33" s="161"/>
+      <c r="V33" s="161"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="159">
+      <c r="D34" s="161">
         <f>'Salida de Datos'!A16</f>
         <v>0</v>
       </c>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159">
+      <c r="E34" s="161"/>
+      <c r="F34" s="161">
         <f>'Salida de Datos'!B16</f>
         <v>0</v>
       </c>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159">
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161">
         <f>'Salida de Datos'!C16</f>
         <v>0</v>
       </c>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="159">
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161">
         <f>'Salida de Datos'!D16</f>
         <v>0</v>
       </c>
-      <c r="S34" s="159"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="159"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="161"/>
+      <c r="U34" s="161"/>
+      <c r="V34" s="161"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -12071,11 +12071,11 @@
     </row>
     <row r="39" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="52">
         <f>'Salida de Datos'!G5</f>
         <v>55</v>
@@ -12092,8 +12092,8 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
       <c r="M39" s="17"/>
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
@@ -12429,81 +12429,81 @@
       <c r="V52" s="17"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="170" t="s">
+      <c r="A53" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="170"/>
-      <c r="Q53" s="170"/>
-      <c r="R53" s="170"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="170"/>
-      <c r="U53" s="170"/>
-      <c r="V53" s="170"/>
-      <c r="W53" s="170"/>
+      <c r="B53" s="178"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="178"/>
+      <c r="K53" s="178"/>
+      <c r="L53" s="178"/>
+      <c r="M53" s="178"/>
+      <c r="N53" s="178"/>
+      <c r="O53" s="178"/>
+      <c r="P53" s="178"/>
+      <c r="Q53" s="178"/>
+      <c r="R53" s="178"/>
+      <c r="S53" s="178"/>
+      <c r="T53" s="178"/>
+      <c r="U53" s="178"/>
+      <c r="V53" s="178"/>
+      <c r="W53" s="178"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="170"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="170"/>
-      <c r="P54" s="170"/>
-      <c r="Q54" s="170"/>
-      <c r="R54" s="170"/>
-      <c r="S54" s="170"/>
-      <c r="T54" s="170"/>
-      <c r="U54" s="170"/>
-      <c r="V54" s="170"/>
-      <c r="W54" s="170"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="178"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="178"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="178"/>
+      <c r="N54" s="178"/>
+      <c r="O54" s="178"/>
+      <c r="P54" s="178"/>
+      <c r="Q54" s="178"/>
+      <c r="R54" s="178"/>
+      <c r="S54" s="178"/>
+      <c r="T54" s="178"/>
+      <c r="U54" s="178"/>
+      <c r="V54" s="178"/>
+      <c r="W54" s="178"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="170"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="170"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="170"/>
-      <c r="Q55" s="170"/>
-      <c r="R55" s="170"/>
-      <c r="S55" s="170"/>
-      <c r="T55" s="170"/>
-      <c r="U55" s="170"/>
-      <c r="V55" s="170"/>
-      <c r="W55" s="170"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="178"/>
+      <c r="M55" s="178"/>
+      <c r="N55" s="178"/>
+      <c r="O55" s="178"/>
+      <c r="P55" s="178"/>
+      <c r="Q55" s="178"/>
+      <c r="R55" s="178"/>
+      <c r="S55" s="178"/>
+      <c r="T55" s="178"/>
+      <c r="U55" s="178"/>
+      <c r="V55" s="178"/>
+      <c r="W55" s="178"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B56" s="44"/>
@@ -12535,132 +12535,132 @@
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="171"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="171"/>
-      <c r="O58" s="171"/>
-      <c r="P58" s="171"/>
-      <c r="Q58" s="171"/>
-      <c r="R58" s="171"/>
-      <c r="S58" s="171"/>
-      <c r="T58" s="171"/>
-      <c r="U58" s="171"/>
-      <c r="V58" s="171"/>
-      <c r="W58" s="171"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="179"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="179"/>
+      <c r="N58" s="179"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="179"/>
+      <c r="R58" s="179"/>
+      <c r="S58" s="179"/>
+      <c r="T58" s="179"/>
+      <c r="U58" s="179"/>
+      <c r="V58" s="179"/>
+      <c r="W58" s="179"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="171"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="171"/>
-      <c r="L59" s="171"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="171"/>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="171"/>
-      <c r="T59" s="171"/>
-      <c r="U59" s="171"/>
-      <c r="V59" s="171"/>
-      <c r="W59" s="171"/>
+      <c r="A59" s="179"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179"/>
+      <c r="H59" s="179"/>
+      <c r="I59" s="179"/>
+      <c r="J59" s="179"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="179"/>
+      <c r="M59" s="179"/>
+      <c r="N59" s="179"/>
+      <c r="O59" s="179"/>
+      <c r="P59" s="179"/>
+      <c r="Q59" s="179"/>
+      <c r="R59" s="179"/>
+      <c r="S59" s="179"/>
+      <c r="T59" s="179"/>
+      <c r="U59" s="179"/>
+      <c r="V59" s="179"/>
+      <c r="W59" s="179"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="171"/>
-      <c r="B60" s="171"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="171"/>
-      <c r="K60" s="171"/>
-      <c r="L60" s="171"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="171"/>
-      <c r="O60" s="171"/>
-      <c r="P60" s="171"/>
-      <c r="Q60" s="171"/>
-      <c r="R60" s="171"/>
-      <c r="S60" s="171"/>
-      <c r="T60" s="171"/>
-      <c r="U60" s="171"/>
-      <c r="V60" s="171"/>
-      <c r="W60" s="171"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="179"/>
+      <c r="M60" s="179"/>
+      <c r="N60" s="179"/>
+      <c r="O60" s="179"/>
+      <c r="P60" s="179"/>
+      <c r="Q60" s="179"/>
+      <c r="R60" s="179"/>
+      <c r="S60" s="179"/>
+      <c r="T60" s="179"/>
+      <c r="U60" s="179"/>
+      <c r="V60" s="179"/>
+      <c r="W60" s="179"/>
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="171"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="171"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="171"/>
-      <c r="O61" s="171"/>
-      <c r="P61" s="171"/>
-      <c r="Q61" s="171"/>
-      <c r="R61" s="171"/>
-      <c r="S61" s="171"/>
-      <c r="T61" s="171"/>
-      <c r="U61" s="171"/>
-      <c r="V61" s="171"/>
-      <c r="W61" s="171"/>
+      <c r="A61" s="179"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="179"/>
+      <c r="M61" s="179"/>
+      <c r="N61" s="179"/>
+      <c r="O61" s="179"/>
+      <c r="P61" s="179"/>
+      <c r="Q61" s="179"/>
+      <c r="R61" s="179"/>
+      <c r="S61" s="179"/>
+      <c r="T61" s="179"/>
+      <c r="U61" s="179"/>
+      <c r="V61" s="179"/>
+      <c r="W61" s="179"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="171"/>
-      <c r="B62" s="171"/>
-      <c r="C62" s="171"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="171"/>
-      <c r="F62" s="171"/>
-      <c r="G62" s="171"/>
-      <c r="H62" s="171"/>
-      <c r="I62" s="171"/>
-      <c r="J62" s="171"/>
-      <c r="K62" s="171"/>
-      <c r="L62" s="171"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="171"/>
-      <c r="O62" s="171"/>
-      <c r="P62" s="171"/>
-      <c r="Q62" s="171"/>
-      <c r="R62" s="171"/>
-      <c r="S62" s="171"/>
-      <c r="T62" s="171"/>
-      <c r="U62" s="171"/>
-      <c r="V62" s="171"/>
-      <c r="W62" s="171"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
+      <c r="H62" s="179"/>
+      <c r="I62" s="179"/>
+      <c r="J62" s="179"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="179"/>
+      <c r="M62" s="179"/>
+      <c r="N62" s="179"/>
+      <c r="O62" s="179"/>
+      <c r="P62" s="179"/>
+      <c r="Q62" s="179"/>
+      <c r="R62" s="179"/>
+      <c r="S62" s="179"/>
+      <c r="T62" s="179"/>
+      <c r="U62" s="179"/>
+      <c r="V62" s="179"/>
+      <c r="W62" s="179"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
@@ -12713,29 +12713,29 @@
       <c r="W64" s="17"/>
     </row>
     <row r="65" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
-      <c r="B65" s="173"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="173"/>
-      <c r="E65" s="173"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="182"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="182"/>
-      <c r="J65" s="182"/>
-      <c r="K65" s="182"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="182"/>
-      <c r="N65" s="182"/>
-      <c r="O65" s="182"/>
-      <c r="P65" s="182"/>
-      <c r="Q65" s="182"/>
-      <c r="R65" s="182"/>
-      <c r="S65" s="182"/>
-      <c r="T65" s="182"/>
-      <c r="U65" s="182"/>
-      <c r="V65" s="182"/>
-      <c r="W65" s="182"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="154"/>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="154"/>
+      <c r="W65" s="154"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="53"/>
@@ -12778,19 +12778,19 @@
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
-      <c r="N67" s="180" t="str">
+      <c r="N67" s="162" t="str">
         <f>N5</f>
         <v>NI-MC-T-XXX-2019</v>
       </c>
-      <c r="O67" s="180"/>
-      <c r="P67" s="180"/>
-      <c r="Q67" s="180"/>
-      <c r="R67" s="180"/>
-      <c r="S67" s="180"/>
-      <c r="T67" s="180"/>
-      <c r="U67" s="180"/>
-      <c r="V67" s="180"/>
-      <c r="W67" s="180"/>
+      <c r="O67" s="162"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="162"/>
+      <c r="R67" s="162"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="162"/>
+      <c r="U67" s="162"/>
+      <c r="V67" s="162"/>
+      <c r="W67" s="162"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="46"/>
@@ -12867,134 +12867,134 @@
       <c r="V70" s="17"/>
     </row>
     <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="168" t="s">
+      <c r="A71" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="168"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="168"/>
-      <c r="E71" s="168"/>
-      <c r="F71" s="168" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="170"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="170"/>
+      <c r="F71" s="170" t="s">
         <v>162</v>
       </c>
-      <c r="G71" s="168"/>
-      <c r="H71" s="168"/>
-      <c r="I71" s="168"/>
-      <c r="J71" s="168"/>
-      <c r="K71" s="168" t="s">
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
+      <c r="J71" s="170"/>
+      <c r="K71" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="L71" s="168"/>
-      <c r="M71" s="168"/>
-      <c r="N71" s="168"/>
-      <c r="O71" s="168"/>
-      <c r="P71" s="168" t="s">
+      <c r="L71" s="170"/>
+      <c r="M71" s="170"/>
+      <c r="N71" s="170"/>
+      <c r="O71" s="170"/>
+      <c r="P71" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="Q71" s="168"/>
-      <c r="R71" s="168"/>
-      <c r="S71" s="168"/>
-      <c r="T71" s="168" t="s">
+      <c r="Q71" s="170"/>
+      <c r="R71" s="170"/>
+      <c r="S71" s="170"/>
+      <c r="T71" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="U71" s="168"/>
-      <c r="V71" s="168"/>
-      <c r="W71" s="168"/>
+      <c r="U71" s="170"/>
+      <c r="V71" s="170"/>
+      <c r="W71" s="170"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="161" t="s">
+      <c r="A72" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="162"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="161" t="s">
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="162"/>
-      <c r="H72" s="162"/>
-      <c r="I72" s="162"/>
-      <c r="J72" s="163"/>
-      <c r="K72" s="164" t="s">
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="L72" s="164"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="164"/>
-      <c r="O72" s="164"/>
-      <c r="P72" s="161" t="s">
+      <c r="L72" s="177"/>
+      <c r="M72" s="177"/>
+      <c r="N72" s="177"/>
+      <c r="O72" s="177"/>
+      <c r="P72" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="Q72" s="162"/>
-      <c r="R72" s="162"/>
-      <c r="S72" s="163"/>
-      <c r="T72" s="165">
+      <c r="Q72" s="172"/>
+      <c r="R72" s="172"/>
+      <c r="S72" s="173"/>
+      <c r="T72" s="164">
         <v>44008</v>
       </c>
-      <c r="U72" s="166"/>
-      <c r="V72" s="166"/>
-      <c r="W72" s="167"/>
+      <c r="U72" s="165"/>
+      <c r="V72" s="165"/>
+      <c r="W72" s="166"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="161" t="s">
+      <c r="A73" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="162"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="162"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="161" t="s">
+      <c r="B73" s="172"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="173"/>
+      <c r="F73" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="162"/>
-      <c r="H73" s="162"/>
-      <c r="I73" s="162"/>
-      <c r="J73" s="163"/>
-      <c r="K73" s="164" t="s">
+      <c r="G73" s="172"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="173"/>
+      <c r="K73" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="L73" s="164"/>
-      <c r="M73" s="164"/>
-      <c r="N73" s="164"/>
-      <c r="O73" s="164"/>
-      <c r="P73" s="161" t="s">
+      <c r="L73" s="177"/>
+      <c r="M73" s="177"/>
+      <c r="N73" s="177"/>
+      <c r="O73" s="177"/>
+      <c r="P73" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="Q73" s="162"/>
-      <c r="R73" s="162"/>
-      <c r="S73" s="163"/>
-      <c r="T73" s="165">
+      <c r="Q73" s="172"/>
+      <c r="R73" s="172"/>
+      <c r="S73" s="173"/>
+      <c r="T73" s="164">
         <v>44331</v>
       </c>
-      <c r="U73" s="166"/>
-      <c r="V73" s="166"/>
-      <c r="W73" s="167"/>
+      <c r="U73" s="165"/>
+      <c r="V73" s="165"/>
+      <c r="W73" s="166"/>
     </row>
     <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="161"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="162"/>
-      <c r="H74" s="162"/>
-      <c r="I74" s="162"/>
-      <c r="J74" s="163"/>
-      <c r="K74" s="178"/>
-      <c r="L74" s="178"/>
-      <c r="M74" s="178"/>
-      <c r="N74" s="178"/>
-      <c r="O74" s="178"/>
-      <c r="P74" s="161"/>
-      <c r="Q74" s="162"/>
-      <c r="R74" s="162"/>
-      <c r="S74" s="163"/>
-      <c r="T74" s="165"/>
-      <c r="U74" s="166"/>
-      <c r="V74" s="166"/>
-      <c r="W74" s="167"/>
+      <c r="A74" s="171"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="171"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="174"/>
+      <c r="L74" s="174"/>
+      <c r="M74" s="174"/>
+      <c r="N74" s="174"/>
+      <c r="O74" s="174"/>
+      <c r="P74" s="171"/>
+      <c r="Q74" s="172"/>
+      <c r="R74" s="172"/>
+      <c r="S74" s="173"/>
+      <c r="T74" s="164"/>
+      <c r="U74" s="165"/>
+      <c r="V74" s="165"/>
+      <c r="W74" s="166"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="48"/>
@@ -13264,118 +13264,71 @@
       <c r="W84" s="17"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I88" s="179" t="s">
+      <c r="I88" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="179"/>
-      <c r="K88" s="179"/>
-      <c r="L88" s="179"/>
-      <c r="M88" s="179"/>
-      <c r="N88" s="179"/>
-      <c r="O88" s="179"/>
-      <c r="P88" s="179"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
+      <c r="L88" s="175"/>
+      <c r="M88" s="175"/>
+      <c r="N88" s="175"/>
+      <c r="O88" s="175"/>
+      <c r="P88" s="175"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I89" s="175" t="s">
+      <c r="I89" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="J89" s="175"/>
-      <c r="K89" s="175"/>
-      <c r="L89" s="175"/>
-      <c r="M89" s="175"/>
-      <c r="N89" s="175"/>
-      <c r="O89" s="175"/>
-      <c r="P89" s="175"/>
+      <c r="J89" s="167"/>
+      <c r="K89" s="167"/>
+      <c r="L89" s="167"/>
+      <c r="M89" s="167"/>
+      <c r="N89" s="167"/>
+      <c r="O89" s="167"/>
+      <c r="P89" s="167"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I90" s="176" t="s">
+      <c r="I90" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="J90" s="176"/>
-      <c r="K90" s="176"/>
-      <c r="L90" s="176"/>
-      <c r="M90" s="176"/>
-      <c r="N90" s="176"/>
-      <c r="O90" s="176"/>
-      <c r="P90" s="176"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="168"/>
+      <c r="M90" s="168"/>
+      <c r="N90" s="168"/>
+      <c r="O90" s="168"/>
+      <c r="P90" s="168"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="177" t="s">
+      <c r="I92" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="J92" s="177"/>
-      <c r="K92" s="177"/>
-      <c r="L92" s="177"/>
-      <c r="M92" s="177"/>
-      <c r="N92" s="177"/>
-      <c r="O92" s="177"/>
-      <c r="P92" s="177"/>
+      <c r="J92" s="169"/>
+      <c r="K92" s="169"/>
+      <c r="L92" s="169"/>
+      <c r="M92" s="169"/>
+      <c r="N92" s="169"/>
+      <c r="O92" s="169"/>
+      <c r="P92" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N15:W15"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="N10:W10"/>
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="N13:W13"/>
-    <mergeCell ref="N14:W14"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="N67:W67"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F65:R65"/>
-    <mergeCell ref="S65:W65"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="I89:P89"/>
-    <mergeCell ref="I90:P90"/>
-    <mergeCell ref="I92:P92"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:K24"/>
+    <mergeCell ref="L23:Q24"/>
+    <mergeCell ref="R23:V24"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:V30"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="F73:J73"/>
     <mergeCell ref="K73:O73"/>
@@ -13392,22 +13345,69 @@
     <mergeCell ref="A58:W62"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="D22:V22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F23:K24"/>
-    <mergeCell ref="L23:Q24"/>
-    <mergeCell ref="R23:V24"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="I89:P89"/>
+    <mergeCell ref="I90:P90"/>
+    <mergeCell ref="I92:P92"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F65:R65"/>
+    <mergeCell ref="S65:W65"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N6:W6"/>
   </mergeCells>
   <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -13497,14 +13497,14 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -13526,14 +13526,14 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
       <c r="H4"/>
-      <c r="I4" s="189" t="s">
+      <c r="I4" s="195" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189" t="s">
+      <c r="J4" s="195"/>
+      <c r="K4" s="195" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="189"/>
+      <c r="L4" s="195"/>
       <c r="M4"/>
       <c r="N4" s="69" t="s">
         <v>215</v>
@@ -13545,10 +13545,10 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="190"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
@@ -13591,12 +13591,12 @@
       <c r="C6" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
       <c r="H6"/>
       <c r="I6" s="73">
         <v>-180</v>
@@ -13623,20 +13623,20 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="194">
+      <c r="B7" s="192">
         <v>-180</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="192">
         <v>800</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="189" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="193"/>
+      <c r="G7" s="191"/>
       <c r="H7"/>
       <c r="I7" s="75">
         <v>-180</v>
@@ -13663,16 +13663,16 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="191" t="s">
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="191" t="s">
+      <c r="E8" s="191"/>
+      <c r="F8" s="189" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="193"/>
+      <c r="G8" s="191"/>
       <c r="H8"/>
       <c r="I8" s="75">
         <v>0</v>
@@ -13707,12 +13707,12 @@
       <c r="C9" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="191"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -13727,20 +13727,20 @@
       <c r="S9"/>
     </row>
     <row r="10" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="194">
+      <c r="B10" s="192">
         <v>-180</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="192">
         <v>1300</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="191" t="s">
+      <c r="E10" s="191"/>
+      <c r="F10" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="191"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -13755,16 +13755,16 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="191" t="s">
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="191" t="s">
+      <c r="E11" s="191"/>
+      <c r="F11" s="189" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="193"/>
+      <c r="G11" s="191"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -13781,10 +13781,10 @@
     <row r="12" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -13799,12 +13799,12 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -13819,12 +13819,12 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
       <c r="H14"/>
       <c r="I14" s="69" t="s">
         <v>196</v>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J16" s="64">
         <f>'Salida de Datos'!A8</f>
-        <v>-180</v>
+        <v>-0.1</v>
       </c>
       <c r="K16" s="63">
         <f>'Salida de Datos'!D8</f>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="L16" s="63">
         <f t="shared" ref="L16:L25" si="0">IF(J16=0,0,IF(J16&lt;=$J$6,$M$6+$N$6*J16+$O$6*J16^2+$P$6*J16^3+$Q$6*J16^4,IF(J16&gt;$J$7,$M$8+$N$8*J16+$O$8*J16^2+$P$8*J16^3+$Q$8*J16^4,$M$7+$N$7*J16+$O$7*J16^2+$P$7*J16^3+$Q$7*J16^4)))</f>
-        <v>-4.1999999999999996E-2</v>
+        <v>1.197E-2</v>
       </c>
       <c r="M16" s="63">
         <f t="shared" ref="M16:M25" si="1">IF(J16=0,0,IF(J16&lt;=$J$6+5,$K$6,IF(J16&gt;$J$7+10,$K$8,$K$7)))</f>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="J17" s="64">
         <f>'Salida de Datos'!A9</f>
-        <v>49.9</v>
+        <v>-0.1</v>
       </c>
       <c r="K17" s="63">
         <f>'Salida de Datos'!D9</f>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="L17" s="63">
         <f t="shared" si="0"/>
-        <v>2.6970000000000001E-2</v>
+        <v>1.197E-2</v>
       </c>
       <c r="M17" s="63">
         <f t="shared" si="1"/>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J18" s="64">
         <f>'Salida de Datos'!A10</f>
-        <v>199.85</v>
+        <v>-0.1</v>
       </c>
       <c r="K18" s="63">
         <f>'Salida de Datos'!D10</f>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="L18" s="63">
         <f t="shared" si="0"/>
-        <v>7.1954999999999991E-2</v>
+        <v>1.197E-2</v>
       </c>
       <c r="M18" s="63">
         <f t="shared" si="1"/>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="J19" s="64">
         <f>'Salida de Datos'!A11</f>
-        <v>349.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K19" s="63">
         <f>'Salida de Datos'!D11</f>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="L19" s="63">
         <f t="shared" si="0"/>
-        <v>0.11693999999999999</v>
+        <v>1.197E-2</v>
       </c>
       <c r="M19" s="63">
         <f t="shared" si="1"/>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="J20" s="64">
         <f>'Salida de Datos'!A12</f>
-        <v>749.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K20" s="63">
         <f>'Salida de Datos'!D12</f>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="L20" s="63">
         <f t="shared" si="0"/>
-        <v>0.23693999999999998</v>
+        <v>1.197E-2</v>
       </c>
       <c r="M20" s="63">
         <f t="shared" si="1"/>
@@ -14302,6 +14302,24 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9reMUeN00/sDAbX6a3uCTnBRYTk9YeTGUxutP9Gp2s1XZp4O4b9qBnLyKC142FYfBuidtzZFtavqvwPtIWAzsQ==" saltValue="CCo81mtDr13pu8CFCZyzpQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="25">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -14309,24 +14327,6 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:K25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">

--- a/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_t_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C974E3-96CD-462F-B872-AB19A41C9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700DF8B-E571-4B65-A8FB-F1CB3B75B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7AAFD4-10F4-49D4-A596-D8EC08F09F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -3785,8 +3785,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3794,8 +3803,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3833,36 +3863,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3877,93 +3877,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3986,7 +3899,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4004,13 +4010,7 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4722,7 +4722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE9C29F-2BAC-49CE-B069-C46A6B2B28BF}">
   <dimension ref="B1:O126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6132,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF2698-90C0-4053-8241-77F6D7A42F8D}">
   <dimension ref="A2:CN134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -6153,21 +6153,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="135" t="s">
         <v>821</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="F2" s="135" t="s">
         <v>820</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="K2" s="125" t="s">
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="K2" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
       <c r="O2" s="114" t="s">
         <v>788</v>
       </c>
@@ -6182,17 +6182,17 @@
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="125" t="s">
         <v>817</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="136" t="s">
         <v>816</v>
       </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="138"/>
       <c r="H3" s="120" t="s">
         <v>140</v>
       </c>
@@ -6223,10 +6223,10 @@
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="123"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="113">
         <v>800</v>
       </c>
@@ -6234,10 +6234,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="139" t="s">
         <v>812</v>
       </c>
-      <c r="G4" s="129"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="111">
         <f>IF($C$6=$S$2,IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8)),IF($C$3=$S$5,LOOKUP(H3,V7:V8,W7:W8),LOOKUP(H3,V7:V8,Y7:Y8))*1.8)</f>
         <v>0.13</v>
@@ -6271,10 +6271,10 @@
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="125" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="123"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="113">
         <v>-180</v>
       </c>
@@ -6282,10 +6282,10 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="136" t="s">
         <v>810</v>
       </c>
-      <c r="G5" s="127"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="117">
         <f>IF($C$3=$S$5,LOOKUP(H3,V7:V8,X7:X8),LOOKUP(H3,V7:V8,Z7:Z8))</f>
         <v>0</v>
@@ -6312,27 +6312,27 @@
       <c r="S5" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="W5" s="121" t="s">
+      <c r="W5" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121" t="s">
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" s="121"/>
+      <c r="Z5" s="134"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="125" t="s">
         <v>808</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="125" t="s">
         <v>807</v>
       </c>
-      <c r="G6" s="123"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="113">
         <v>0.1</v>
       </c>
@@ -6360,10 +6360,10 @@
       </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="125" t="s">
         <v>804</v>
       </c>
-      <c r="B7" s="123"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="112">
         <v>1</v>
       </c>
@@ -6371,12 +6371,12 @@
         <f>$C$6</f>
         <v>°C</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="135" t="s">
         <v>803</v>
       </c>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
       <c r="U7" s="110" t="s">
         <v>802</v>
       </c>
@@ -6399,14 +6399,14 @@
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="K8" s="134" t="s">
+      <c r="K8" s="144" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134" t="s">
+      <c r="L8" s="144"/>
+      <c r="M8" s="144" t="s">
         <v>800</v>
       </c>
-      <c r="N8" s="134"/>
+      <c r="N8" s="144"/>
       <c r="U8" s="110" t="s">
         <v>799</v>
       </c>
@@ -6444,17 +6444,17 @@
       </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="146" t="s">
         <v>797</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="145" t="s">
         <v>796</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135" t="s">
+      <c r="C10" s="145"/>
+      <c r="D10" s="145" t="s">
         <v>795</v>
       </c>
-      <c r="E10" s="135"/>
+      <c r="E10" s="145"/>
       <c r="K10" s="26" t="str">
         <f>$C$6</f>
         <v>°C</v>
@@ -6473,7 +6473,7 @@
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="107" t="s">
         <v>794</v>
       </c>
@@ -6575,21 +6575,11 @@
       </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A14" s="105">
-        <v>0</v>
-      </c>
-      <c r="B14" s="105">
-        <v>0</v>
-      </c>
-      <c r="C14" s="105">
-        <v>0</v>
-      </c>
-      <c r="D14" s="105">
-        <v>0</v>
-      </c>
-      <c r="E14" s="105">
-        <v>0</v>
-      </c>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
       <c r="K14" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A9,IF($C$6=$S$4,273.15+'Datos Patrones'!A9,CONVERT('Datos Patrones'!A9,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A22,IF($C$6=$S$4,273.15+'Datos Patrones'!A22,CONVERT('Datos Patrones'!A22,"C","F"))))</f>
         <v>50</v>
@@ -6608,21 +6598,11 @@
       </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A15" s="105">
-        <v>0</v>
-      </c>
-      <c r="B15" s="105">
-        <v>0</v>
-      </c>
-      <c r="C15" s="105">
-        <v>0</v>
-      </c>
-      <c r="D15" s="105">
-        <v>0</v>
-      </c>
-      <c r="E15" s="105">
-        <v>0</v>
-      </c>
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
       <c r="K15" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A10,IF($C$6=$S$4,273.15+'Datos Patrones'!A10,CONVERT('Datos Patrones'!A10,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A23,IF($C$6=$S$4,273.15+'Datos Patrones'!A23,CONVERT('Datos Patrones'!A23,"C","F"))))</f>
         <v>100</v>
@@ -6641,21 +6621,11 @@
       </c>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A16" s="105">
-        <v>0</v>
-      </c>
-      <c r="B16" s="105">
-        <v>0</v>
-      </c>
-      <c r="C16" s="105">
-        <v>0</v>
-      </c>
-      <c r="D16" s="105">
-        <v>0</v>
-      </c>
-      <c r="E16" s="105">
-        <v>0</v>
-      </c>
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
       <c r="K16" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A11,IF($C$6=$S$4,273.15+'Datos Patrones'!A11,CONVERT('Datos Patrones'!A11,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A24,IF($C$6=$S$4,273.15+'Datos Patrones'!A24,CONVERT('Datos Patrones'!A24,"C","F"))))</f>
         <v>150</v>
@@ -6674,21 +6644,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
-        <v>0</v>
-      </c>
-      <c r="B17" s="105">
-        <v>0</v>
-      </c>
-      <c r="C17" s="105">
-        <v>0</v>
-      </c>
-      <c r="D17" s="105">
-        <v>0</v>
-      </c>
-      <c r="E17" s="105">
-        <v>0</v>
-      </c>
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
       <c r="K17" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A12,IF($C$6=$S$4,273.15+'Datos Patrones'!A12,CONVERT('Datos Patrones'!A12,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A25,IF($C$6=$S$4,273.15+'Datos Patrones'!A25,CONVERT('Datos Patrones'!A25,"C","F"))))</f>
         <v>250</v>
@@ -6707,21 +6667,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
-        <v>0</v>
-      </c>
-      <c r="B18" s="105">
-        <v>0</v>
-      </c>
-      <c r="C18" s="105">
-        <v>0</v>
-      </c>
-      <c r="D18" s="105">
-        <v>0</v>
-      </c>
-      <c r="E18" s="105">
-        <v>0</v>
-      </c>
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
       <c r="K18" s="38">
         <f>IF($C$3=$S$5,IF($C$6=$S$2,1*'Datos Patrones'!A13,IF($C$6=$S$4,273.15+'Datos Patrones'!A13,CONVERT('Datos Patrones'!A13,"C","F"))),IF($C$6=$S$2,1*'Datos Patrones'!A26,IF($C$6=$S$4,273.15+'Datos Patrones'!A26,CONVERT('Datos Patrones'!A26,"C","F"))))</f>
         <v>800</v>
@@ -6740,22 +6690,12 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104">
-        <v>0</v>
-      </c>
-      <c r="B19" s="104">
-        <v>0</v>
-      </c>
-      <c r="C19" s="104">
-        <v>0</v>
-      </c>
-      <c r="D19" s="104">
-        <v>0</v>
-      </c>
-      <c r="E19" s="104">
-        <v>0</v>
-      </c>
-      <c r="K19" s="130" t="s">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="K19" s="140" t="s">
         <v>190</v>
       </c>
       <c r="L19" s="26" t="s">
@@ -6774,22 +6714,12 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104">
-        <v>0</v>
-      </c>
-      <c r="B20" s="104">
-        <v>0</v>
-      </c>
-      <c r="C20" s="104">
-        <v>0</v>
-      </c>
-      <c r="D20" s="104">
-        <v>0</v>
-      </c>
-      <c r="E20" s="104">
-        <v>0</v>
-      </c>
-      <c r="K20" s="130"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="K20" s="140"/>
       <c r="L20" s="26" t="s">
         <v>779</v>
       </c>
@@ -6806,22 +6736,12 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104">
-        <v>0</v>
-      </c>
-      <c r="B21" s="104">
-        <v>0</v>
-      </c>
-      <c r="C21" s="104">
-        <v>0</v>
-      </c>
-      <c r="D21" s="104">
-        <v>0</v>
-      </c>
-      <c r="E21" s="104">
-        <v>0</v>
-      </c>
-      <c r="K21" s="130"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="K21" s="140"/>
       <c r="L21" s="26" t="s">
         <v>778</v>
       </c>
@@ -6838,7 +6758,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="130"/>
+      <c r="K22" s="140"/>
       <c r="L22" s="26" t="s">
         <v>777</v>
       </c>
@@ -6855,7 +6775,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="130"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="26" t="s">
         <v>776</v>
       </c>
@@ -6872,7 +6792,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="130"/>
+      <c r="K24" s="140"/>
       <c r="L24" s="26" t="s">
         <v>775</v>
       </c>
@@ -6889,7 +6809,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="130"/>
+      <c r="K25" s="140"/>
       <c r="L25" s="26" t="s">
         <v>774</v>
       </c>
@@ -6927,7 +6847,7 @@
       <c r="G26" s="92" t="s">
         <v>789</v>
       </c>
-      <c r="K26" s="131" t="s">
+      <c r="K26" s="141" t="s">
         <v>189</v>
       </c>
       <c r="L26" s="26" t="s">
@@ -6967,7 +6887,7 @@
       <c r="G27" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="132"/>
+      <c r="K27" s="142"/>
       <c r="L27" s="26" t="s">
         <v>779</v>
       </c>
@@ -7012,7 +6932,7 @@
         <f t="shared" si="0"/>
         <v>°C</v>
       </c>
-      <c r="K28" s="132"/>
+      <c r="K28" s="142"/>
       <c r="L28" s="26" t="s">
         <v>778</v>
       </c>
@@ -7041,23 +6961,23 @@
         <f t="shared" ref="C29:C36" si="2">A29+B29</f>
         <v>-0.1</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="99" t="e">
         <f t="shared" ref="D29:D36" si="3">AVERAGE(B14,C14,D14,E14)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="98" t="e">
         <f t="shared" ref="E29:E36" si="4">C29-D29</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F29" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="97" t="e">
         <f t="shared" ref="F29:F36" si="5">_xlfn.STDEV.P(B14:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="96" t="e">
         <f t="shared" ref="G29:G36" si="6">ABS(AVERAGE(B14,D14)-AVERAGE(C14,E14))</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="142"/>
       <c r="L29" s="26" t="s">
         <v>777</v>
       </c>
@@ -7086,23 +7006,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F30" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="142"/>
       <c r="L30" s="26" t="s">
         <v>776</v>
       </c>
@@ -7131,23 +7051,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F31" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="142"/>
       <c r="L31" s="26" t="s">
         <v>775</v>
       </c>
@@ -7176,23 +7096,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F32" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="143"/>
       <c r="L32" s="26" t="s">
         <v>774</v>
       </c>
@@ -7221,23 +7141,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F33" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="121" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="134" t="s">
         <v>188</v>
       </c>
       <c r="L33" s="26" t="s">
@@ -7268,23 +7188,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F34" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="134"/>
       <c r="L34" s="26" t="s">
         <v>779</v>
       </c>
@@ -7313,23 +7233,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F35" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="134"/>
       <c r="L35" s="26" t="s">
         <v>778</v>
       </c>
@@ -7358,23 +7278,23 @@
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="99" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="98">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="98" t="e">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F36" s="97">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="97" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="96">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="96" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="134"/>
       <c r="L36" s="26" t="s">
         <v>777</v>
       </c>
@@ -7391,7 +7311,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K37" s="121"/>
+      <c r="K37" s="134"/>
       <c r="L37" s="26" t="s">
         <v>776</v>
       </c>
@@ -7408,17 +7328,17 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="127" t="s">
         <v>783</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="K38" s="121"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="K38" s="134"/>
       <c r="L38" s="26" t="s">
         <v>775</v>
       </c>
@@ -7435,27 +7355,27 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="124" t="s">
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E39" s="124" t="s">
+      <c r="E39" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F39" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G39" s="124" t="s">
+      <c r="G39" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H39" s="124" t="s">
+      <c r="H39" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="K39" s="121"/>
+      <c r="K39" s="134"/>
       <c r="L39" s="26" t="s">
         <v>774</v>
       </c>
@@ -7472,15 +7392,15 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="142"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="K40" s="121" t="s">
+      <c r="A40" s="132"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="K40" s="134" t="s">
         <v>187</v>
       </c>
       <c r="L40" s="26" t="s">
@@ -7499,11 +7419,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="124" t="s">
+      <c r="A41" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -7518,11 +7438,11 @@
         <f t="shared" ref="G41:G46" si="7">D41/E41</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="89" t="e">
         <f t="shared" ref="H41:H46" si="8">(G41/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
-      </c>
-      <c r="K41" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="134"/>
       <c r="L41" s="26" t="s">
         <v>779</v>
       </c>
@@ -7539,11 +7459,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="139" t="s">
+      <c r="A42" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B42" s="140"/>
-      <c r="C42" s="141"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -7559,11 +7479,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="89">
+      <c r="H42" s="89" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="134"/>
       <c r="L42" s="26" t="s">
         <v>778</v>
       </c>
@@ -7580,11 +7500,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -7600,11 +7520,11 @@
         <f t="shared" si="7"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="89" t="e">
         <f t="shared" si="8"/>
-        <v>7.5462209524372117</v>
-      </c>
-      <c r="K43" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="134"/>
       <c r="L43" s="26" t="s">
         <v>777</v>
       </c>
@@ -7621,14 +7541,14 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="90">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="90" t="e">
         <f>F29</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E44" s="89">
         <f>SQRT(3)</f>
@@ -7637,15 +7557,15 @@
       <c r="F44" s="91">
         <v>1</v>
       </c>
-      <c r="G44" s="90">
+      <c r="G44" s="90" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="89" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="134"/>
       <c r="L44" s="26" t="s">
         <v>776</v>
       </c>
@@ -7662,11 +7582,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -7682,11 +7602,11 @@
         <f t="shared" si="7"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H45" s="89">
+      <c r="H45" s="89" t="e">
         <f t="shared" si="8"/>
-        <v>75.462209524372113</v>
-      </c>
-      <c r="K45" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="134"/>
       <c r="L45" s="26" t="s">
         <v>775</v>
       </c>
@@ -7703,14 +7623,14 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="90">
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="90" t="e">
         <f>G29</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E46" s="89">
         <f>SQRT(12)</f>
@@ -7719,15 +7639,15 @@
       <c r="F46" s="91">
         <v>1</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="90" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="89" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="134"/>
       <c r="L46" s="26" t="s">
         <v>774</v>
       </c>
@@ -7744,23 +7664,23 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="88">
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="88" t="e">
         <f>SQRT(SUMSQ(G41:G46))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="H47" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="87" t="e">
         <f>SUM(H41:H46)</f>
-        <v>100</v>
-      </c>
-      <c r="K47" s="121" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="134" t="s">
         <v>186</v>
       </c>
       <c r="L47" s="26" t="s">
@@ -7779,19 +7699,19 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="144" t="s">
+      <c r="A48" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="86">
+      <c r="B48" s="130"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="86" t="e">
         <f>(2*G47)*2.5</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="K48" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="134"/>
       <c r="L48" s="26" t="s">
         <v>779</v>
       </c>
@@ -7808,7 +7728,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="121"/>
+      <c r="K49" s="134"/>
       <c r="L49" s="26" t="s">
         <v>778</v>
       </c>
@@ -7825,17 +7745,17 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="127" t="s">
         <v>782</v>
       </c>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="K50" s="121"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="K50" s="134"/>
       <c r="L50" s="26" t="s">
         <v>777</v>
       </c>
@@ -7852,27 +7772,27 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="124" t="s">
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E51" s="124" t="s">
+      <c r="E51" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F51" s="124" t="s">
+      <c r="F51" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G51" s="124" t="s">
+      <c r="G51" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H51" s="124" t="s">
+      <c r="H51" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="K51" s="121"/>
+      <c r="K51" s="134"/>
       <c r="L51" s="26" t="s">
         <v>776</v>
       </c>
@@ -7889,15 +7809,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="142"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="K52" s="121"/>
+      <c r="A52" s="132"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="K52" s="134"/>
       <c r="L52" s="26" t="s">
         <v>775</v>
       </c>
@@ -7914,11 +7834,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="124" t="s">
+      <c r="A53" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="90">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -7932,11 +7852,11 @@
         <f t="shared" ref="G53:G58" si="9">D53/E53</f>
         <v>1.5E-3</v>
       </c>
-      <c r="H53" s="89">
+      <c r="H53" s="89" t="e">
         <f t="shared" ref="H53:H58" si="10">(G53/SUM($G$41:$G$46))*100</f>
-        <v>0.39211314284286158</v>
-      </c>
-      <c r="K53" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="134"/>
       <c r="L53" s="26" t="s">
         <v>774</v>
       </c>
@@ -7953,11 +7873,11 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="139" t="s">
+      <c r="A54" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B54" s="140"/>
-      <c r="C54" s="141"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="90">
         <v>0</v>
       </c>
@@ -7972,11 +7892,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H54" s="89">
+      <c r="H54" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="121" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="134" t="s">
         <v>185</v>
       </c>
       <c r="L54" s="26" t="s">
@@ -7995,11 +7915,11 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="124" t="s">
+      <c r="A55" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B55" s="124"/>
-      <c r="C55" s="124"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="90">
         <v>0.1</v>
       </c>
@@ -8014,11 +7934,11 @@
         <f t="shared" si="9"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H55" s="89">
+      <c r="H55" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>7.5462209524372117</v>
-      </c>
-      <c r="K55" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="134"/>
       <c r="L55" s="26" t="s">
         <v>779</v>
       </c>
@@ -8035,14 +7955,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="90">
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="90" t="e">
         <f>F30</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E56" s="89">
         <f>SQRT(3)</f>
@@ -8051,15 +7971,15 @@
       <c r="F56" s="91">
         <v>1</v>
       </c>
-      <c r="G56" s="90">
+      <c r="G56" s="90" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="134"/>
       <c r="L56" s="26" t="s">
         <v>778</v>
       </c>
@@ -8076,11 +7996,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="124" t="s">
+      <c r="A57" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8096,11 +8016,11 @@
         <f t="shared" si="9"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H57" s="89">
+      <c r="H57" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>75.462209524372113</v>
-      </c>
-      <c r="K57" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="134"/>
       <c r="L57" s="26" t="s">
         <v>777</v>
       </c>
@@ -8117,14 +8037,14 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="124" t="s">
+      <c r="A58" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="90">
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="90" t="e">
         <f>G30</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E58" s="89">
         <f>SQRT(12)</f>
@@ -8133,15 +8053,15 @@
       <c r="F58" s="91">
         <v>1</v>
       </c>
-      <c r="G58" s="90">
+      <c r="G58" s="90" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="134"/>
       <c r="L58" s="26" t="s">
         <v>776</v>
       </c>
@@ -8158,23 +8078,23 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="88">
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="88" t="e">
         <f>SQRT(SUMSQ(G53:G58))</f>
-        <v>0.2901187975065847</v>
-      </c>
-      <c r="H59" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="87" t="e">
         <f>SUM(H53:H58)</f>
-        <v>83.400543619652183</v>
-      </c>
-      <c r="K59" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="134"/>
       <c r="L59" s="26" t="s">
         <v>775</v>
       </c>
@@ -8191,19 +8111,19 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="144" t="s">
+      <c r="A60" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B60" s="145"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="86">
+      <c r="B60" s="130"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="86" t="e">
         <f>(2*G59)*2.5</f>
-        <v>1.4505939875329235</v>
-      </c>
-      <c r="K60" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="134"/>
       <c r="L60" s="26" t="s">
         <v>774</v>
       </c>
@@ -8220,7 +8140,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K61" s="121" t="s">
+      <c r="K61" s="134" t="s">
         <v>184</v>
       </c>
       <c r="L61" s="26" t="s">
@@ -8239,17 +8159,17 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="127" t="s">
         <v>781</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="143"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="143"/>
-      <c r="K62" s="121"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="K62" s="134"/>
       <c r="L62" s="26" t="s">
         <v>779</v>
       </c>
@@ -8266,27 +8186,27 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="124" t="s">
+      <c r="B63" s="132"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E63" s="124" t="s">
+      <c r="E63" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F63" s="124" t="s">
+      <c r="F63" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G63" s="124" t="s">
+      <c r="G63" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H63" s="124" t="s">
+      <c r="H63" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="K63" s="121"/>
+      <c r="K63" s="134"/>
       <c r="L63" s="26" t="s">
         <v>778</v>
       </c>
@@ -8303,15 +8223,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="142"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="K64" s="121"/>
+      <c r="A64" s="132"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="121"/>
+      <c r="K64" s="134"/>
       <c r="L64" s="26" t="s">
         <v>777</v>
       </c>
@@ -8328,11 +8248,11 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="90">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -8346,11 +8266,11 @@
         <f t="shared" ref="G65:G70" si="11">D65/E65</f>
         <v>1.5E-3</v>
       </c>
-      <c r="H65" s="89">
+      <c r="H65" s="89" t="e">
         <f t="shared" ref="H65:H70" si="12">(G65/SUM($G$41:$G$46))*100</f>
-        <v>0.39211314284286158</v>
-      </c>
-      <c r="K65" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="134"/>
       <c r="L65" s="26" t="s">
         <v>776</v>
       </c>
@@ -8367,11 +8287,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="139" t="s">
+      <c r="A66" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B66" s="140"/>
-      <c r="C66" s="141"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="90">
         <v>0</v>
       </c>
@@ -8386,11 +8306,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H66" s="89">
+      <c r="H66" s="89" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="134"/>
       <c r="L66" s="26" t="s">
         <v>775</v>
       </c>
@@ -8407,11 +8327,11 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="124" t="s">
+      <c r="A67" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="90">
         <v>0.1</v>
       </c>
@@ -8426,13 +8346,13 @@
         <f t="shared" si="11"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H67" s="89">
+      <c r="H67" s="89" t="e">
         <f t="shared" si="12"/>
-        <v>7.5462209524372117</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I67" s="93"/>
       <c r="J67" s="95"/>
-      <c r="K67" s="121"/>
+      <c r="K67" s="134"/>
       <c r="L67" s="26" t="s">
         <v>774</v>
       </c>
@@ -8449,14 +8369,14 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="90">
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="90" t="e">
         <f>F31</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E68" s="89">
         <f>SQRT(3)</f>
@@ -8465,17 +8385,17 @@
       <c r="F68" s="91">
         <v>1</v>
       </c>
-      <c r="G68" s="90">
+      <c r="G68" s="90" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" s="89" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I68" s="93"/>
       <c r="J68" s="95"/>
-      <c r="K68" s="121" t="s">
+      <c r="K68" s="134" t="s">
         <v>183</v>
       </c>
       <c r="L68" s="26" t="s">
@@ -8494,11 +8414,11 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
+      <c r="B69" s="121"/>
+      <c r="C69" s="121"/>
       <c r="D69" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8514,12 +8434,12 @@
         <f t="shared" si="11"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H69" s="89">
+      <c r="H69" s="89" t="e">
         <f t="shared" si="12"/>
-        <v>75.462209524372113</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I69" s="93"/>
-      <c r="K69" s="121"/>
+      <c r="K69" s="134"/>
       <c r="L69" s="26" t="s">
         <v>779</v>
       </c>
@@ -8536,14 +8456,14 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="124" t="s">
+      <c r="A70" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="90">
+      <c r="B70" s="121"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="90" t="e">
         <f>G31</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E70" s="89">
         <f>SQRT(12)</f>
@@ -8552,16 +8472,16 @@
       <c r="F70" s="91">
         <v>1</v>
       </c>
-      <c r="G70" s="90">
+      <c r="G70" s="90" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="89" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I70" s="93"/>
-      <c r="K70" s="121"/>
+      <c r="K70" s="134"/>
       <c r="L70" s="26" t="s">
         <v>778</v>
       </c>
@@ -8578,24 +8498,24 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="137" t="s">
+      <c r="A71" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B71" s="137"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="138"/>
-      <c r="G71" s="88">
+      <c r="B71" s="133"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="88" t="e">
         <f>SQRT(SUMSQ(G65:G70))</f>
-        <v>0.2901187975065847</v>
-      </c>
-      <c r="H71" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="87" t="e">
         <f>SUM(H65:H70)</f>
-        <v>83.400543619652183</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I71" s="93"/>
-      <c r="K71" s="121"/>
+      <c r="K71" s="134"/>
       <c r="L71" s="26" t="s">
         <v>777</v>
       </c>
@@ -8612,20 +8532,20 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="144" t="s">
+      <c r="A72" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="86">
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="86" t="e">
         <f>(2*G71)*2.5</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I72" s="93"/>
-      <c r="K72" s="121"/>
+      <c r="K72" s="134"/>
       <c r="L72" s="26" t="s">
         <v>776</v>
       </c>
@@ -8643,7 +8563,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I73" s="93"/>
-      <c r="K73" s="121"/>
+      <c r="K73" s="134"/>
       <c r="L73" s="26" t="s">
         <v>775</v>
       </c>
@@ -8661,7 +8581,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I74" s="93"/>
-      <c r="K74" s="121"/>
+      <c r="K74" s="134"/>
       <c r="L74" s="26" t="s">
         <v>774</v>
       </c>
@@ -8681,94 +8601,94 @@
       <c r="I75" s="93"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="143" t="s">
+      <c r="A76" s="127" t="s">
         <v>773</v>
       </c>
-      <c r="B76" s="143"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="143"/>
-      <c r="H76" s="143"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="127"/>
       <c r="I76" s="93"/>
-      <c r="J76" s="143" t="s">
+      <c r="J76" s="127" t="s">
         <v>772</v>
       </c>
-      <c r="K76" s="143"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="143"/>
-      <c r="N76" s="143"/>
-      <c r="O76" s="143"/>
-      <c r="P76" s="143"/>
-      <c r="Q76" s="143"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="127"/>
+      <c r="M76" s="127"/>
+      <c r="N76" s="127"/>
+      <c r="O76" s="127"/>
+      <c r="P76" s="127"/>
+      <c r="Q76" s="127"/>
     </row>
     <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="124" t="s">
+      <c r="A77" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B77" s="142"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="124" t="s">
+      <c r="B77" s="132"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E77" s="124" t="s">
+      <c r="E77" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F77" s="124" t="s">
+      <c r="F77" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G77" s="124" t="s">
+      <c r="G77" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H77" s="124" t="s">
+      <c r="H77" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="J77" s="124" t="s">
+      <c r="J77" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="K77" s="142"/>
-      <c r="L77" s="142"/>
-      <c r="M77" s="124" t="s">
+      <c r="K77" s="132"/>
+      <c r="L77" s="132"/>
+      <c r="M77" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="N77" s="124" t="s">
+      <c r="N77" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="O77" s="124" t="s">
+      <c r="O77" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="P77" s="124" t="s">
+      <c r="P77" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="Q77" s="124" t="s">
+      <c r="Q77" s="121" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="142"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="142"/>
-      <c r="L78" s="142"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="124"/>
-      <c r="P78" s="124"/>
-      <c r="Q78" s="124"/>
+      <c r="A78" s="132"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="121"/>
+      <c r="J78" s="132"/>
+      <c r="K78" s="132"/>
+      <c r="L78" s="132"/>
+      <c r="M78" s="121"/>
+      <c r="N78" s="121"/>
+      <c r="O78" s="121"/>
+      <c r="P78" s="121"/>
+      <c r="Q78" s="121"/>
     </row>
     <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="124" t="s">
+      <c r="A79" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B79" s="124"/>
-      <c r="C79" s="124"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -8783,15 +8703,15 @@
         <f t="shared" ref="G79:G84" si="13">D79/E79</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H79" s="89">
+      <c r="H79" s="89" t="e">
         <f t="shared" ref="H79:H84" si="14">(G79/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
-      </c>
-      <c r="J79" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="121"/>
       <c r="M79" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -8806,17 +8726,17 @@
         <f t="shared" ref="P79:P84" si="15">M79/N79</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q79" s="89">
+      <c r="Q79" s="89" t="e">
         <f t="shared" ref="Q79:Q84" si="16">(P79/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="139" t="s">
+      <c r="A80" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B80" s="140"/>
-      <c r="C80" s="141"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -8832,15 +8752,15 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H80" s="89">
+      <c r="H80" s="89" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="139" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="K80" s="140"/>
-      <c r="L80" s="141"/>
+      <c r="K80" s="123"/>
+      <c r="L80" s="124"/>
       <c r="M80" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -8856,17 +8776,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="89">
+      <c r="Q80" s="89" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
+      <c r="B81" s="121"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -8882,15 +8802,15 @@
         <f t="shared" si="13"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H81" s="89">
+      <c r="H81" s="89" t="e">
         <f t="shared" si="14"/>
-        <v>7.5462209524372117</v>
-      </c>
-      <c r="J81" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
+      <c r="K81" s="121"/>
+      <c r="L81" s="121"/>
       <c r="M81" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -8906,20 +8826,20 @@
         <f t="shared" si="15"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="Q81" s="89">
+      <c r="Q81" s="89" t="e">
         <f t="shared" si="16"/>
-        <v>7.5462209524372117</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="124" t="s">
+      <c r="A82" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="90">
+      <c r="B82" s="121"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="90" t="e">
         <f>F32</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E82" s="89">
         <f>SQRT(3)</f>
@@ -8928,22 +8848,22 @@
       <c r="F82" s="91">
         <v>1</v>
       </c>
-      <c r="G82" s="90">
+      <c r="G82" s="90" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="89" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="K82" s="124"/>
-      <c r="L82" s="124"/>
-      <c r="M82" s="90">
+      <c r="K82" s="121"/>
+      <c r="L82" s="121"/>
+      <c r="M82" s="90" t="e">
         <f>F34</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N82" s="89">
         <f>SQRT(3)</f>
@@ -8952,21 +8872,21 @@
       <c r="O82" s="91">
         <v>1</v>
       </c>
-      <c r="P82" s="90">
+      <c r="P82" s="90" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q82" s="89" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -8982,15 +8902,15 @@
         <f t="shared" si="13"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H83" s="89">
+      <c r="H83" s="89" t="e">
         <f t="shared" si="14"/>
-        <v>75.462209524372113</v>
-      </c>
-      <c r="J83" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="K83" s="124"/>
-      <c r="L83" s="124"/>
+      <c r="K83" s="121"/>
+      <c r="L83" s="121"/>
       <c r="M83" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9006,20 +8926,20 @@
         <f t="shared" si="15"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="Q83" s="89">
+      <c r="Q83" s="89" t="e">
         <f t="shared" si="16"/>
-        <v>75.462209524372113</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="90">
+      <c r="B84" s="121"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="90" t="e">
         <f>G32</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E84" s="89">
         <f>SQRT(12)</f>
@@ -9028,22 +8948,22 @@
       <c r="F84" s="91">
         <v>1</v>
       </c>
-      <c r="G84" s="90">
+      <c r="G84" s="90" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="89" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="K84" s="124"/>
-      <c r="L84" s="124"/>
-      <c r="M84" s="90">
+      <c r="K84" s="121"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="90" t="e">
         <f>G34</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N84" s="89">
         <f>SQRT(12)</f>
@@ -9052,163 +8972,163 @@
       <c r="O84" s="91">
         <v>1</v>
       </c>
-      <c r="P84" s="90">
+      <c r="P84" s="90" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q84" s="89" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="137" t="s">
+      <c r="A85" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="138"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="88">
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="128"/>
+      <c r="E85" s="128"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="88" t="e">
         <f>SQRT(SUMSQ(G79:G84))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="H85" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="87" t="e">
         <f>SUM(H79:H84)</f>
-        <v>100</v>
-      </c>
-      <c r="J85" s="137" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J85" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="K85" s="137"/>
-      <c r="L85" s="137"/>
-      <c r="M85" s="138"/>
-      <c r="N85" s="138"/>
-      <c r="O85" s="138"/>
-      <c r="P85" s="88">
+      <c r="K85" s="133"/>
+      <c r="L85" s="133"/>
+      <c r="M85" s="128"/>
+      <c r="N85" s="128"/>
+      <c r="O85" s="128"/>
+      <c r="P85" s="88" t="e">
         <f>SQRT(SUMSQ(P79:P84))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="Q85" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="87" t="e">
         <f>SUM(Q79:Q84)</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="144" t="s">
+      <c r="A86" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="138"/>
-      <c r="G86" s="86">
+      <c r="B86" s="130"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="128"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="86" t="e">
         <f>(2*G85)*2.5</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="J86" s="144" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="K86" s="145"/>
-      <c r="L86" s="146"/>
-      <c r="M86" s="138"/>
-      <c r="N86" s="138"/>
-      <c r="O86" s="138"/>
-      <c r="P86" s="86">
+      <c r="K86" s="130"/>
+      <c r="L86" s="131"/>
+      <c r="M86" s="128"/>
+      <c r="N86" s="128"/>
+      <c r="O86" s="128"/>
+      <c r="P86" s="86" t="e">
         <f>(2*P85)*2.5</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="143" t="s">
+      <c r="A88" s="127" t="s">
         <v>771</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
-      <c r="H88" s="143"/>
-      <c r="J88" s="143" t="s">
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="J88" s="127" t="s">
         <v>770</v>
       </c>
-      <c r="K88" s="143"/>
-      <c r="L88" s="143"/>
-      <c r="M88" s="143"/>
-      <c r="N88" s="143"/>
-      <c r="O88" s="143"/>
-      <c r="P88" s="143"/>
-      <c r="Q88" s="143"/>
+      <c r="K88" s="127"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="127"/>
+      <c r="N88" s="127"/>
+      <c r="O88" s="127"/>
+      <c r="P88" s="127"/>
+      <c r="Q88" s="127"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="124" t="s">
+      <c r="A89" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B89" s="142"/>
-      <c r="C89" s="142"/>
-      <c r="D89" s="124" t="s">
+      <c r="B89" s="132"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E89" s="124" t="s">
+      <c r="E89" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F89" s="124" t="s">
+      <c r="F89" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G89" s="124" t="s">
+      <c r="G89" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H89" s="124" t="s">
+      <c r="H89" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="J89" s="124" t="s">
+      <c r="J89" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="K89" s="142"/>
-      <c r="L89" s="142"/>
-      <c r="M89" s="124" t="s">
+      <c r="K89" s="132"/>
+      <c r="L89" s="132"/>
+      <c r="M89" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="N89" s="124" t="s">
+      <c r="N89" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="O89" s="124" t="s">
+      <c r="O89" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="P89" s="124" t="s">
+      <c r="P89" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="Q89" s="124" t="s">
+      <c r="Q89" s="121" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="142"/>
-      <c r="B90" s="142"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
-      <c r="J90" s="142"/>
-      <c r="K90" s="142"/>
-      <c r="L90" s="142"/>
-      <c r="M90" s="124"/>
-      <c r="N90" s="124"/>
-      <c r="O90" s="124"/>
-      <c r="P90" s="124"/>
-      <c r="Q90" s="124"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="132"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="121"/>
+      <c r="J90" s="132"/>
+      <c r="K90" s="132"/>
+      <c r="L90" s="132"/>
+      <c r="M90" s="121"/>
+      <c r="N90" s="121"/>
+      <c r="O90" s="121"/>
+      <c r="P90" s="121"/>
+      <c r="Q90" s="121"/>
     </row>
     <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="124" t="s">
+      <c r="A91" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="121"/>
       <c r="D91" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9223,15 +9143,15 @@
         <f t="shared" ref="G91:G96" si="17">D91/E91</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H91" s="89">
+      <c r="H91" s="89" t="e">
         <f t="shared" ref="H91:H96" si="18">(G91/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
-      </c>
-      <c r="J91" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J91" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="K91" s="124"/>
-      <c r="L91" s="124"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="121"/>
       <c r="M91" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9246,17 +9166,17 @@
         <f t="shared" ref="P91:P96" si="19">M91/N91</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q91" s="89">
+      <c r="Q91" s="89" t="e">
         <f t="shared" ref="Q91:Q96" si="20">(P91/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="139" t="s">
+      <c r="A92" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B92" s="140"/>
-      <c r="C92" s="141"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9272,15 +9192,15 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H92" s="89">
+      <c r="H92" s="89" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="139" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J92" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="K92" s="140"/>
-      <c r="L92" s="141"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="124"/>
       <c r="M92" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9296,17 +9216,17 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="89">
+      <c r="Q92" s="89" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="124" t="s">
+      <c r="A93" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="121"/>
       <c r="D93" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9322,15 +9242,15 @@
         <f t="shared" si="17"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H93" s="89">
+      <c r="H93" s="89" t="e">
         <f t="shared" si="18"/>
-        <v>7.5462209524372117</v>
-      </c>
-      <c r="J93" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J93" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="K93" s="124"/>
-      <c r="L93" s="124"/>
+      <c r="K93" s="121"/>
+      <c r="L93" s="121"/>
       <c r="M93" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9346,20 +9266,20 @@
         <f t="shared" si="19"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="Q93" s="89">
+      <c r="Q93" s="89" t="e">
         <f t="shared" si="20"/>
-        <v>7.5462209524372117</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="124" t="s">
+      <c r="A94" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="90">
+      <c r="B94" s="121"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="90" t="e">
         <f>F33</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E94" s="89">
         <f>SQRT(3)</f>
@@ -9368,22 +9288,22 @@
       <c r="F94" s="91">
         <v>1</v>
       </c>
-      <c r="G94" s="90">
+      <c r="G94" s="90" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="89" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J94" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="K94" s="124"/>
-      <c r="L94" s="124"/>
-      <c r="M94" s="90">
+      <c r="K94" s="121"/>
+      <c r="L94" s="121"/>
+      <c r="M94" s="90" t="e">
         <f>F35</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N94" s="89">
         <f>SQRT(3)</f>
@@ -9392,21 +9312,21 @@
       <c r="O94" s="91">
         <v>1</v>
       </c>
-      <c r="P94" s="90">
+      <c r="P94" s="90" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q94" s="89" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="124" t="s">
+      <c r="A95" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="121"/>
       <c r="D95" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9422,15 +9342,15 @@
         <f t="shared" si="17"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H95" s="89">
+      <c r="H95" s="89" t="e">
         <f t="shared" si="18"/>
-        <v>75.462209524372113</v>
-      </c>
-      <c r="J95" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J95" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="K95" s="124"/>
-      <c r="L95" s="124"/>
+      <c r="K95" s="121"/>
+      <c r="L95" s="121"/>
       <c r="M95" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9446,20 +9366,20 @@
         <f t="shared" si="19"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="Q95" s="89">
+      <c r="Q95" s="89" t="e">
         <f t="shared" si="20"/>
-        <v>75.462209524372113</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="124" t="s">
+      <c r="A96" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="90">
+      <c r="B96" s="121"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="90" t="e">
         <f>G33</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E96" s="89">
         <f>SQRT(12)</f>
@@ -9468,22 +9388,22 @@
       <c r="F96" s="91">
         <v>1</v>
       </c>
-      <c r="G96" s="90">
+      <c r="G96" s="90" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="89" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="124" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="K96" s="124"/>
-      <c r="L96" s="124"/>
-      <c r="M96" s="90">
+      <c r="K96" s="121"/>
+      <c r="L96" s="121"/>
+      <c r="M96" s="90" t="e">
         <f>G35</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N96" s="89">
         <f>SQRT(12)</f>
@@ -9492,125 +9412,125 @@
       <c r="O96" s="91">
         <v>1</v>
       </c>
-      <c r="P96" s="90">
+      <c r="P96" s="90" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q96" s="89" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="137" t="s">
+      <c r="A97" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B97" s="137"/>
-      <c r="C97" s="137"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="88">
+      <c r="B97" s="133"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="88" t="e">
         <f>SQRT(SUMSQ(G91:G96))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="H97" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="87" t="e">
         <f>SUM(H91:H96)</f>
-        <v>100</v>
-      </c>
-      <c r="J97" s="137" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="K97" s="137"/>
-      <c r="L97" s="137"/>
-      <c r="M97" s="138"/>
-      <c r="N97" s="138"/>
-      <c r="O97" s="138"/>
-      <c r="P97" s="88">
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="128"/>
+      <c r="N97" s="128"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="88" t="e">
         <f>SQRT(SUMSQ(P91:P96))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="Q97" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q97" s="87" t="e">
         <f>SUM(Q91:Q96)</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="144" t="s">
+      <c r="A98" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B98" s="145"/>
-      <c r="C98" s="146"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="138"/>
-      <c r="G98" s="86">
+      <c r="B98" s="130"/>
+      <c r="C98" s="131"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="128"/>
+      <c r="F98" s="128"/>
+      <c r="G98" s="86" t="e">
         <f>(2*G97)*2.5</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="J98" s="144" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="K98" s="145"/>
-      <c r="L98" s="146"/>
-      <c r="M98" s="138"/>
-      <c r="N98" s="138"/>
-      <c r="O98" s="138"/>
-      <c r="P98" s="86">
+      <c r="K98" s="130"/>
+      <c r="L98" s="131"/>
+      <c r="M98" s="128"/>
+      <c r="N98" s="128"/>
+      <c r="O98" s="128"/>
+      <c r="P98" s="86" t="e">
         <f>(2*P97)*2.5</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="143" t="s">
+      <c r="A100" s="127" t="s">
         <v>769</v>
       </c>
-      <c r="B100" s="143"/>
-      <c r="C100" s="143"/>
-      <c r="D100" s="143"/>
-      <c r="E100" s="143"/>
-      <c r="F100" s="143"/>
-      <c r="G100" s="143"/>
-      <c r="H100" s="143"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="127"/>
     </row>
     <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="124" t="s">
+      <c r="A101" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B101" s="142"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="124" t="s">
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="E101" s="124" t="s">
+      <c r="E101" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="F101" s="124" t="s">
+      <c r="F101" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="G101" s="124" t="s">
+      <c r="G101" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="H101" s="124" t="s">
+      <c r="H101" s="121" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="142"/>
-      <c r="B102" s="142"/>
-      <c r="C102" s="142"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="124"/>
-      <c r="H102" s="124"/>
+      <c r="A102" s="132"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="121"/>
     </row>
     <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="124" t="s">
+      <c r="A103" s="121" t="s">
         <v>762</v>
       </c>
-      <c r="B103" s="124"/>
-      <c r="C103" s="124"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="121"/>
       <c r="D103" s="90">
         <f>$H$4</f>
         <v>0.13</v>
@@ -9625,17 +9545,17 @@
         <f t="shared" ref="G103:G108" si="21">D103/E103</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H103" s="89">
+      <c r="H103" s="89" t="e">
         <f t="shared" ref="H103:H108" si="22">(G103/SUM($G$41:$G$46))*100</f>
-        <v>16.99156952319067</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="139" t="s">
+      <c r="A104" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B104" s="140"/>
-      <c r="C104" s="141"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="90">
         <f>$H$5</f>
         <v>0</v>
@@ -9651,17 +9571,17 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H104" s="89">
+      <c r="H104" s="89" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="124" t="s">
+      <c r="A105" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
+      <c r="B105" s="121"/>
+      <c r="C105" s="121"/>
       <c r="D105" s="90">
         <f>$H$6</f>
         <v>0.1</v>
@@ -9677,20 +9597,20 @@
         <f t="shared" si="21"/>
         <v>2.8867513459481291E-2</v>
       </c>
-      <c r="H105" s="89">
+      <c r="H105" s="89" t="e">
         <f t="shared" si="22"/>
-        <v>7.5462209524372117</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="124" t="s">
+      <c r="A106" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="90">
+      <c r="B106" s="121"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="90" t="e">
         <f>F36</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E106" s="89">
         <f>SQRT(3)</f>
@@ -9699,21 +9619,21 @@
       <c r="F106" s="91">
         <v>1</v>
       </c>
-      <c r="G106" s="90">
+      <c r="G106" s="90" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="89" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="124" t="s">
+      <c r="A107" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="B107" s="124"/>
-      <c r="C107" s="124"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="121"/>
       <c r="D107" s="90">
         <f>$C$7</f>
         <v>1</v>
@@ -9729,20 +9649,20 @@
         <f t="shared" si="21"/>
         <v>0.28867513459481292</v>
       </c>
-      <c r="H107" s="89">
+      <c r="H107" s="89" t="e">
         <f t="shared" si="22"/>
-        <v>75.462209524372113</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124" t="s">
+      <c r="A108" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="B108" s="124"/>
-      <c r="C108" s="124"/>
-      <c r="D108" s="90">
+      <c r="B108" s="121"/>
+      <c r="C108" s="121"/>
+      <c r="D108" s="90" t="e">
         <f>G36</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E108" s="89">
         <f>SQRT(12)</f>
@@ -9751,45 +9671,45 @@
       <c r="F108" s="91">
         <v>1</v>
       </c>
-      <c r="G108" s="90">
+      <c r="G108" s="90" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H108" s="89" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="137" t="s">
+      <c r="A109" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="B109" s="137"/>
-      <c r="C109" s="137"/>
-      <c r="D109" s="138"/>
-      <c r="E109" s="138"/>
-      <c r="F109" s="138"/>
-      <c r="G109" s="88">
+      <c r="B109" s="133"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="128"/>
+      <c r="E109" s="128"/>
+      <c r="F109" s="128"/>
+      <c r="G109" s="88" t="e">
         <f>SQRT(SUMSQ(G103:G108))</f>
-        <v>0.29730736059954299</v>
-      </c>
-      <c r="H109" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="87" t="e">
         <f>SUM(H103:H108)</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="144" t="s">
+      <c r="A110" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="B110" s="145"/>
-      <c r="C110" s="146"/>
-      <c r="D110" s="138"/>
-      <c r="E110" s="138"/>
-      <c r="F110" s="138"/>
-      <c r="G110" s="86">
+      <c r="B110" s="130"/>
+      <c r="C110" s="131"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+      <c r="F110" s="128"/>
+      <c r="G110" s="86" t="e">
         <f>(2*G109)*2.5</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9818,29 +9738,115 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="156">
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="K61:K67"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="K47:K53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="J76:Q76"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="D109:F110"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="D97:F98"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="M97:O98"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F86"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="M85:O86"/>
+    <mergeCell ref="J89:L90"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
     <mergeCell ref="A76:H76"/>
     <mergeCell ref="A77:C78"/>
     <mergeCell ref="D77:D78"/>
@@ -9865,115 +9871,29 @@
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:F72"/>
     <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F86"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="M85:O86"/>
-    <mergeCell ref="J89:L90"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="J88:Q88"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="M97:O98"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="D97:F98"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="K61:K67"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="K54:K60"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="K47:K53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="J76:Q76"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="D109:F110"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="K26:K32"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:B12">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
@@ -10035,12 +9955,12 @@
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
       <c r="D4" s="149"/>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
@@ -10122,17 +10042,17 @@
         <f>'Entrada de Datos'!C29</f>
         <v>-0.1</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="28" t="e">
         <f>'Entrada de Datos'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="28" t="e">
         <f>'Entrada de Datos'!E29</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D8" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="28" t="e">
         <f>'Entrada de Datos'!G48</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -10140,17 +10060,17 @@
         <f>'Entrada de Datos'!C30</f>
         <v>-0.1</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="28" t="e">
         <f>'Entrada de Datos'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="28" t="e">
         <f>'Entrada de Datos'!E30</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D9" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="28" t="e">
         <f>'Entrada de Datos'!G60</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>128</v>
@@ -10161,17 +10081,17 @@
         <f>'Entrada de Datos'!C31</f>
         <v>-0.1</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="28" t="e">
         <f>'Entrada de Datos'!D31</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="28" t="e">
         <f>'Entrada de Datos'!E31</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D10" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="28" t="e">
         <f>'Entrada de Datos'!G72</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>127</v>
@@ -10182,17 +10102,17 @@
         <f>'Entrada de Datos'!C32</f>
         <v>-0.1</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="28" t="e">
         <f>'Entrada de Datos'!D32</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="28" t="e">
         <f>'Entrada de Datos'!E32</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D11" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="28" t="e">
         <f>'Entrada de Datos'!G86</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="17" t="s">
@@ -10204,17 +10124,17 @@
         <f>'Entrada de Datos'!C33</f>
         <v>-0.1</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="28" t="e">
         <f>'Entrada de Datos'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="28" t="e">
         <f>'Entrada de Datos'!E33</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D12" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="28" t="e">
         <f>'Entrada de Datos'!G98</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="17" t="str">
@@ -10227,17 +10147,17 @@
         <f>'Entrada de Datos'!C34</f>
         <v>-0.1</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="28" t="e">
         <f>'Entrada de Datos'!D34</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="28" t="e">
         <f>'Entrada de Datos'!E34</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D13" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="28" t="e">
         <f>'Entrada de Datos'!P86</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="17" t="s">
@@ -10249,17 +10169,17 @@
         <f>'Entrada de Datos'!C35</f>
         <v>-0.1</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="28" t="e">
         <f>'Entrada de Datos'!D35</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="28" t="e">
         <f>'Entrada de Datos'!E35</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D14" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="28" t="e">
         <f>'Entrada de Datos'!P98</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E14" s="27"/>
     </row>
@@ -10268,17 +10188,17 @@
         <f>'Entrada de Datos'!C36</f>
         <v>-0.1</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="28" t="e">
         <f>'Entrada de Datos'!D36</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="28" t="e">
         <f>'Entrada de Datos'!E36</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D15" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="28" t="e">
         <f>'Entrada de Datos'!G110</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -10331,17 +10251,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A8,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A8,"F","K"),A8))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B8,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B8,"F","K"),B8))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C22" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C8)*1.8,C8)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D22" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D8)*1.8,D8)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E22" s="25"/>
     </row>
@@ -10350,17 +10270,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A9,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A9,"F","K"),A9))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B9,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B9,"F","K"),B9))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C23" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C9)*1.8,C9)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D23" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D9)*1.8,D9)</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E23" s="25"/>
     </row>
@@ -10369,17 +10289,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A10,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A10,"F","K"),A10))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B10,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B10,"F","K"),B10))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C24" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C10)*1.8,C10)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D24" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D10)*1.8,D10)</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E24" s="25"/>
     </row>
@@ -10388,17 +10308,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A11,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A11,"F","K"),A11))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B11,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B11,"F","K"),B11))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C25" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C11)*1.8,C11)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D25" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D11)*1.8,D11)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E25" s="25"/>
     </row>
@@ -10407,17 +10327,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A12,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A12,"F","K"),A12))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B12,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B12,"F","K"),B12))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C26" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C12)*1.8,C12)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D26" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D12)*1.8,D12)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10425,17 +10345,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A13,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A13,"F","K"),A13))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B13,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B13,"F","K"),B13))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C27" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C13)*1.8,C13)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D27" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D13)*1.8,D13)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -10443,17 +10363,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A14,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A14,"F","K"),A14))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B14,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B14,"F","K"),B14))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C28" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C14)*1.8,C14)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D28" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D14)*1.8,D14)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10461,17 +10381,17 @@
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!A15,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!A15,"F","K"),A15))</f>
         <v>273.04999999999995</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$2,CONVERT('Salida de Datos'!B15,"C","K"),IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,CONVERT('Salida de Datos'!B15,"F","K"),B15))</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C29" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!C15)*1.8,C15)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="D29" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="24" t="e">
         <f>IF('Entrada de Datos'!$C$6='Entrada de Datos'!$S$3,('Salida de Datos'!D15)*1.8,D15)</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -10522,16 +10442,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -10759,16 +10679,16 @@
       <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
@@ -11035,8 +10955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600CB85-6596-4159-82BB-120C84D9BD1B}">
   <dimension ref="A1:Y92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:J73"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11065,29 +10985,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
+      <c r="A1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
     </row>
     <row r="2" spans="1:25" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62"/>
@@ -11118,19 +11038,19 @@
       <c r="K5" s="56"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="155" t="str">
+      <c r="N5" s="169" t="str">
         <f>Generales!C3</f>
         <v>NI-MC-T-XXX-2019</v>
       </c>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
@@ -11147,19 +11067,19 @@
       <c r="K6" s="56"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="155" t="str">
+      <c r="N6" s="169" t="str">
         <f>Generales!C5</f>
         <v>NI-CS-</v>
       </c>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
     </row>
@@ -11178,19 +11098,19 @@
       <c r="K7" s="56"/>
       <c r="L7" s="59"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="156" t="str">
+      <c r="N7" s="187" t="str">
         <f>Generales!C7</f>
         <v>2015-08-23</v>
       </c>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
@@ -11207,14 +11127,14 @@
       <c r="K8" s="56"/>
       <c r="L8" s="59"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="176">
+      <c r="N8" s="160">
         <f ca="1">NOW()</f>
-        <v>45432.634649884261</v>
-      </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
+        <v>45478.687606828702</v>
+      </c>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
       <c r="S8" s="53"/>
       <c r="T8" s="53"/>
       <c r="U8" s="53"/>
@@ -11236,19 +11156,19 @@
       <c r="K9" s="56"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="155" t="str">
+      <c r="N9" s="169" t="str">
         <f>Generales!C9</f>
         <v>Termómetro digital</v>
       </c>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="169"/>
+      <c r="V9" s="169"/>
+      <c r="W9" s="169"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
@@ -11265,19 +11185,19 @@
       <c r="K10" s="56"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="155" t="str">
+      <c r="N10" s="169" t="str">
         <f>Generales!C11</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
@@ -11294,19 +11214,19 @@
       <c r="K11" s="56"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="155" t="str">
+      <c r="N11" s="169" t="str">
         <f>Generales!C15</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
@@ -11323,19 +11243,19 @@
       <c r="K12" s="56"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="155" t="str">
+      <c r="N12" s="169" t="str">
         <f>Generales!C17</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -11352,19 +11272,19 @@
       <c r="K13" s="56"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="155" t="str">
+      <c r="N13" s="169" t="str">
         <f>Generales!C19</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
@@ -11381,19 +11301,19 @@
       <c r="K14" s="56"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="155" t="str">
+      <c r="N14" s="169" t="str">
         <f>Generales!C21</f>
         <v>XXXXXX</v>
       </c>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="169"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
@@ -11410,19 +11330,19 @@
       <c r="K15" s="56"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="156" t="str">
+      <c r="N15" s="187" t="str">
         <f>Generales!C23</f>
         <v>5647399TRWUEL</v>
       </c>
-      <c r="O15" s="155"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="169"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="169"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
@@ -11439,19 +11359,19 @@
       <c r="K16" s="56"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="155" t="str">
+      <c r="N16" s="169" t="str">
         <f>Generales!C25</f>
         <v>Aivepet Nicaragua S.A.</v>
       </c>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
+      <c r="T16" s="169"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="169"/>
+      <c r="W16" s="169"/>
     </row>
     <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
@@ -11468,19 +11388,19 @@
       <c r="K17" s="56"/>
       <c r="L17" s="57"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="155" t="str">
+      <c r="N17" s="169" t="str">
         <f>Generales!C27</f>
         <v>XXXXXXX</v>
       </c>
-      <c r="O17" s="155"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
@@ -11497,31 +11417,31 @@
       <c r="K18" s="56"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="155" t="str">
+      <c r="N18" s="169" t="str">
         <f>Generales!C29</f>
         <v>XXXXXXX</v>
       </c>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="169"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="169"/>
+      <c r="U19" s="169"/>
+      <c r="V19" s="169"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
@@ -11537,44 +11457,44 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="180" t="s">
+      <c r="D22" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
-      <c r="R22" s="180"/>
-      <c r="S22" s="180"/>
-      <c r="T22" s="180"/>
-      <c r="U22" s="180"/>
-      <c r="V22" s="180"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="182" t="s">
+      <c r="E23" s="152"/>
+      <c r="F23" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
       <c r="L23" s="149" t="s">
         <v>121</v>
       </c>
@@ -11583,397 +11503,397 @@
       <c r="O23" s="149"/>
       <c r="P23" s="149"/>
       <c r="Q23" s="149"/>
-      <c r="R23" s="181" t="s">
+      <c r="R23" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
       <c r="L24" s="149"/>
       <c r="M24" s="149"/>
       <c r="N24" s="149"/>
       <c r="O24" s="149"/>
       <c r="P24" s="149"/>
       <c r="Q24" s="149"/>
-      <c r="R24" s="181"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="181"/>
-      <c r="U24" s="181"/>
-      <c r="V24" s="181"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="157" t="str">
+      <c r="D25" s="183" t="str">
         <f>'Salida de Datos'!A7</f>
         <v>°C</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158" t="str">
+      <c r="E25" s="183"/>
+      <c r="F25" s="184" t="str">
         <f>'Salida de Datos'!C7</f>
         <v>°C</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="158" t="str">
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="184" t="str">
         <f>'Salida de Datos'!C7</f>
         <v>°C</v>
       </c>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="157" t="str">
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="183" t="str">
         <f>'Salida de Datos'!D7</f>
         <v>°C</v>
       </c>
-      <c r="S25" s="157"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="161">
+      <c r="D26" s="159">
         <f>'Salida de Datos'!A8</f>
         <v>-0.1</v>
       </c>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161">
+      <c r="E26" s="159"/>
+      <c r="F26" s="159" t="e">
         <f>'Salida de Datos'!B8</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159" t="e">
         <f>'Salida de Datos'!C8</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159" t="e">
         <f>'Salida de Datos'!D8</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="161">
+      <c r="D27" s="159">
         <f>'Salida de Datos'!A9</f>
         <v>-0.1</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161">
+      <c r="E27" s="159"/>
+      <c r="F27" s="159" t="e">
         <f>'Salida de Datos'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159" t="e">
         <f>'Salida de Datos'!C9</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159" t="e">
         <f>'Salida de Datos'!D9</f>
-        <v>1.4505939875329235</v>
-      </c>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="161">
+      <c r="D28" s="159">
         <f>'Salida de Datos'!A10</f>
         <v>-0.1</v>
       </c>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161">
+      <c r="E28" s="159"/>
+      <c r="F28" s="159" t="e">
         <f>'Salida de Datos'!B10</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159" t="e">
         <f>'Salida de Datos'!C10</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159" t="e">
         <f>'Salida de Datos'!D10</f>
-        <v>1.4505939875329235</v>
-      </c>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="161"/>
-      <c r="V28" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="161">
+      <c r="D29" s="159">
         <f>'Salida de Datos'!A11</f>
         <v>-0.1</v>
       </c>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159" t="e">
         <f>'Salida de Datos'!B11</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159" t="e">
         <f>'Salida de Datos'!C11</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159" t="e">
         <f>'Salida de Datos'!D11</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="161">
+      <c r="D30" s="159">
         <f>'Salida de Datos'!A12</f>
         <v>-0.1</v>
       </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159" t="e">
         <f>'Salida de Datos'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159" t="e">
         <f>'Salida de Datos'!C12</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159" t="e">
         <f>'Salida de Datos'!D12</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S30" s="161"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="161"/>
-      <c r="V30" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="159"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="161">
+      <c r="D31" s="159">
         <f>'Salida de Datos'!A13</f>
         <v>-0.1</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161">
+      <c r="E31" s="159"/>
+      <c r="F31" s="159" t="e">
         <f>'Salida de Datos'!B13</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159" t="e">
         <f>'Salida de Datos'!C13</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159" t="e">
         <f>'Salida de Datos'!D13</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="161">
+      <c r="D32" s="159">
         <f>'Salida de Datos'!A14</f>
         <v>-0.1</v>
       </c>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161">
+      <c r="E32" s="159"/>
+      <c r="F32" s="159" t="e">
         <f>'Salida de Datos'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159" t="e">
         <f>'Salida de Datos'!C14</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159" t="e">
         <f>'Salida de Datos'!D14</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="161">
+      <c r="D33" s="159">
         <f>'Salida de Datos'!A15</f>
         <v>-0.1</v>
       </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161">
+      <c r="E33" s="159"/>
+      <c r="F33" s="159" t="e">
         <f>'Salida de Datos'!B15</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159" t="e">
         <f>'Salida de Datos'!C15</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="159" t="e">
         <f>'Salida de Datos'!D15</f>
-        <v>1.4865368029977151</v>
-      </c>
-      <c r="S33" s="161"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="159"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="161">
+      <c r="D34" s="159">
         <f>'Salida de Datos'!A16</f>
         <v>0</v>
       </c>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161">
+      <c r="E34" s="159"/>
+      <c r="F34" s="159">
         <f>'Salida de Datos'!B16</f>
         <v>0</v>
       </c>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161">
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159">
         <f>'Salida de Datos'!C16</f>
         <v>0</v>
       </c>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161">
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159">
         <f>'Salida de Datos'!D16</f>
         <v>0</v>
       </c>
-      <c r="S34" s="161"/>
-      <c r="T34" s="161"/>
-      <c r="U34" s="161"/>
-      <c r="V34" s="161"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -12071,11 +11991,11 @@
     </row>
     <row r="39" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53"/>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="52">
         <f>'Salida de Datos'!G5</f>
         <v>55</v>
@@ -12092,8 +12012,8 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
       <c r="M39" s="17"/>
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
@@ -12429,81 +12349,81 @@
       <c r="V52" s="17"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="178"/>
-      <c r="S53" s="178"/>
-      <c r="T53" s="178"/>
-      <c r="U53" s="178"/>
-      <c r="V53" s="178"/>
-      <c r="W53" s="178"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
+      <c r="Q53" s="170"/>
+      <c r="R53" s="170"/>
+      <c r="S53" s="170"/>
+      <c r="T53" s="170"/>
+      <c r="U53" s="170"/>
+      <c r="V53" s="170"/>
+      <c r="W53" s="170"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="178"/>
-      <c r="S54" s="178"/>
-      <c r="T54" s="178"/>
-      <c r="U54" s="178"/>
-      <c r="V54" s="178"/>
-      <c r="W54" s="178"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="170"/>
+      <c r="Q54" s="170"/>
+      <c r="R54" s="170"/>
+      <c r="S54" s="170"/>
+      <c r="T54" s="170"/>
+      <c r="U54" s="170"/>
+      <c r="V54" s="170"/>
+      <c r="W54" s="170"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="178"/>
-      <c r="N55" s="178"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="178"/>
-      <c r="Q55" s="178"/>
-      <c r="R55" s="178"/>
-      <c r="S55" s="178"/>
-      <c r="T55" s="178"/>
-      <c r="U55" s="178"/>
-      <c r="V55" s="178"/>
-      <c r="W55" s="178"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="170"/>
+      <c r="P55" s="170"/>
+      <c r="Q55" s="170"/>
+      <c r="R55" s="170"/>
+      <c r="S55" s="170"/>
+      <c r="T55" s="170"/>
+      <c r="U55" s="170"/>
+      <c r="V55" s="170"/>
+      <c r="W55" s="170"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B56" s="44"/>
@@ -12535,132 +12455,132 @@
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="179" t="s">
+      <c r="A58" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="179"/>
-      <c r="K58" s="179"/>
-      <c r="L58" s="179"/>
-      <c r="M58" s="179"/>
-      <c r="N58" s="179"/>
-      <c r="O58" s="179"/>
-      <c r="P58" s="179"/>
-      <c r="Q58" s="179"/>
-      <c r="R58" s="179"/>
-      <c r="S58" s="179"/>
-      <c r="T58" s="179"/>
-      <c r="U58" s="179"/>
-      <c r="V58" s="179"/>
-      <c r="W58" s="179"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="171"/>
+      <c r="R58" s="171"/>
+      <c r="S58" s="171"/>
+      <c r="T58" s="171"/>
+      <c r="U58" s="171"/>
+      <c r="V58" s="171"/>
+      <c r="W58" s="171"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="179"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="179"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="179"/>
-      <c r="I59" s="179"/>
-      <c r="J59" s="179"/>
-      <c r="K59" s="179"/>
-      <c r="L59" s="179"/>
-      <c r="M59" s="179"/>
-      <c r="N59" s="179"/>
-      <c r="O59" s="179"/>
-      <c r="P59" s="179"/>
-      <c r="Q59" s="179"/>
-      <c r="R59" s="179"/>
-      <c r="S59" s="179"/>
-      <c r="T59" s="179"/>
-      <c r="U59" s="179"/>
-      <c r="V59" s="179"/>
-      <c r="W59" s="179"/>
+      <c r="A59" s="171"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="171"/>
+      <c r="V59" s="171"/>
+      <c r="W59" s="171"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="179"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="179"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="179"/>
-      <c r="H60" s="179"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="179"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="179"/>
-      <c r="M60" s="179"/>
-      <c r="N60" s="179"/>
-      <c r="O60" s="179"/>
-      <c r="P60" s="179"/>
-      <c r="Q60" s="179"/>
-      <c r="R60" s="179"/>
-      <c r="S60" s="179"/>
-      <c r="T60" s="179"/>
-      <c r="U60" s="179"/>
-      <c r="V60" s="179"/>
-      <c r="W60" s="179"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="171"/>
+      <c r="R60" s="171"/>
+      <c r="S60" s="171"/>
+      <c r="T60" s="171"/>
+      <c r="U60" s="171"/>
+      <c r="V60" s="171"/>
+      <c r="W60" s="171"/>
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="179"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="179"/>
-      <c r="G61" s="179"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="179"/>
-      <c r="K61" s="179"/>
-      <c r="L61" s="179"/>
-      <c r="M61" s="179"/>
-      <c r="N61" s="179"/>
-      <c r="O61" s="179"/>
-      <c r="P61" s="179"/>
-      <c r="Q61" s="179"/>
-      <c r="R61" s="179"/>
-      <c r="S61" s="179"/>
-      <c r="T61" s="179"/>
-      <c r="U61" s="179"/>
-      <c r="V61" s="179"/>
-      <c r="W61" s="179"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="171"/>
+      <c r="Q61" s="171"/>
+      <c r="R61" s="171"/>
+      <c r="S61" s="171"/>
+      <c r="T61" s="171"/>
+      <c r="U61" s="171"/>
+      <c r="V61" s="171"/>
+      <c r="W61" s="171"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="179"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
-      <c r="E62" s="179"/>
-      <c r="F62" s="179"/>
-      <c r="G62" s="179"/>
-      <c r="H62" s="179"/>
-      <c r="I62" s="179"/>
-      <c r="J62" s="179"/>
-      <c r="K62" s="179"/>
-      <c r="L62" s="179"/>
-      <c r="M62" s="179"/>
-      <c r="N62" s="179"/>
-      <c r="O62" s="179"/>
-      <c r="P62" s="179"/>
-      <c r="Q62" s="179"/>
-      <c r="R62" s="179"/>
-      <c r="S62" s="179"/>
-      <c r="T62" s="179"/>
-      <c r="U62" s="179"/>
-      <c r="V62" s="179"/>
-      <c r="W62" s="179"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="171"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="171"/>
+      <c r="Q62" s="171"/>
+      <c r="R62" s="171"/>
+      <c r="S62" s="171"/>
+      <c r="T62" s="171"/>
+      <c r="U62" s="171"/>
+      <c r="V62" s="171"/>
+      <c r="W62" s="171"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
@@ -12713,29 +12633,29 @@
       <c r="W64" s="17"/>
     </row>
     <row r="65" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="152"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154"/>
-      <c r="W65" s="154"/>
+      <c r="A65" s="172"/>
+      <c r="B65" s="173"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="173"/>
+      <c r="F65" s="182"/>
+      <c r="G65" s="182"/>
+      <c r="H65" s="182"/>
+      <c r="I65" s="182"/>
+      <c r="J65" s="182"/>
+      <c r="K65" s="182"/>
+      <c r="L65" s="182"/>
+      <c r="M65" s="182"/>
+      <c r="N65" s="182"/>
+      <c r="O65" s="182"/>
+      <c r="P65" s="182"/>
+      <c r="Q65" s="182"/>
+      <c r="R65" s="182"/>
+      <c r="S65" s="182"/>
+      <c r="T65" s="182"/>
+      <c r="U65" s="182"/>
+      <c r="V65" s="182"/>
+      <c r="W65" s="182"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="53"/>
@@ -12778,19 +12698,19 @@
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
-      <c r="N67" s="162" t="str">
+      <c r="N67" s="180" t="str">
         <f>N5</f>
         <v>NI-MC-T-XXX-2019</v>
       </c>
-      <c r="O67" s="162"/>
-      <c r="P67" s="162"/>
-      <c r="Q67" s="162"/>
-      <c r="R67" s="162"/>
-      <c r="S67" s="162"/>
-      <c r="T67" s="162"/>
-      <c r="U67" s="162"/>
-      <c r="V67" s="162"/>
-      <c r="W67" s="162"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="180"/>
+      <c r="Q67" s="180"/>
+      <c r="R67" s="180"/>
+      <c r="S67" s="180"/>
+      <c r="T67" s="180"/>
+      <c r="U67" s="180"/>
+      <c r="V67" s="180"/>
+      <c r="W67" s="180"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="46"/>
@@ -12867,134 +12787,134 @@
       <c r="V70" s="17"/>
     </row>
     <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="170" t="s">
+      <c r="A71" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="170"/>
-      <c r="C71" s="170"/>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170"/>
-      <c r="F71" s="170" t="s">
+      <c r="B71" s="168"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="168"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="G71" s="170"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="170"/>
-      <c r="J71" s="170"/>
-      <c r="K71" s="170" t="s">
+      <c r="G71" s="168"/>
+      <c r="H71" s="168"/>
+      <c r="I71" s="168"/>
+      <c r="J71" s="168"/>
+      <c r="K71" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="L71" s="170"/>
-      <c r="M71" s="170"/>
-      <c r="N71" s="170"/>
-      <c r="O71" s="170"/>
-      <c r="P71" s="170" t="s">
+      <c r="L71" s="168"/>
+      <c r="M71" s="168"/>
+      <c r="N71" s="168"/>
+      <c r="O71" s="168"/>
+      <c r="P71" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="Q71" s="170"/>
-      <c r="R71" s="170"/>
-      <c r="S71" s="170"/>
-      <c r="T71" s="170" t="s">
+      <c r="Q71" s="168"/>
+      <c r="R71" s="168"/>
+      <c r="S71" s="168"/>
+      <c r="T71" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="U71" s="170"/>
-      <c r="V71" s="170"/>
-      <c r="W71" s="170"/>
+      <c r="U71" s="168"/>
+      <c r="V71" s="168"/>
+      <c r="W71" s="168"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="171" t="s">
+      <c r="A72" s="161" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="172"/>
-      <c r="C72" s="172"/>
-      <c r="D72" s="172"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="171" t="s">
+      <c r="B72" s="162"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="172"/>
-      <c r="H72" s="172"/>
-      <c r="I72" s="172"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="177" t="s">
+      <c r="G72" s="162"/>
+      <c r="H72" s="162"/>
+      <c r="I72" s="162"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="L72" s="177"/>
-      <c r="M72" s="177"/>
-      <c r="N72" s="177"/>
-      <c r="O72" s="177"/>
-      <c r="P72" s="171" t="s">
+      <c r="L72" s="164"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="164"/>
+      <c r="O72" s="164"/>
+      <c r="P72" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="172"/>
-      <c r="S72" s="173"/>
-      <c r="T72" s="164">
+      <c r="Q72" s="162"/>
+      <c r="R72" s="162"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="165">
         <v>44008</v>
       </c>
-      <c r="U72" s="165"/>
-      <c r="V72" s="165"/>
-      <c r="W72" s="166"/>
+      <c r="U72" s="166"/>
+      <c r="V72" s="166"/>
+      <c r="W72" s="167"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="171" t="s">
+      <c r="A73" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="172"/>
-      <c r="C73" s="172"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="173"/>
-      <c r="F73" s="171" t="s">
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="173"/>
-      <c r="K73" s="177" t="s">
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="L73" s="177"/>
-      <c r="M73" s="177"/>
-      <c r="N73" s="177"/>
-      <c r="O73" s="177"/>
-      <c r="P73" s="171" t="s">
+      <c r="L73" s="164"/>
+      <c r="M73" s="164"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="164"/>
+      <c r="P73" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="172"/>
-      <c r="S73" s="173"/>
-      <c r="T73" s="164">
+      <c r="Q73" s="162"/>
+      <c r="R73" s="162"/>
+      <c r="S73" s="163"/>
+      <c r="T73" s="165">
         <v>44331</v>
       </c>
-      <c r="U73" s="165"/>
-      <c r="V73" s="165"/>
-      <c r="W73" s="166"/>
+      <c r="U73" s="166"/>
+      <c r="V73" s="166"/>
+      <c r="W73" s="167"/>
     </row>
     <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="171"/>
-      <c r="B74" s="172"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="171"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="174"/>
-      <c r="L74" s="174"/>
-      <c r="M74" s="174"/>
-      <c r="N74" s="174"/>
-      <c r="O74" s="174"/>
-      <c r="P74" s="171"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="172"/>
-      <c r="S74" s="173"/>
-      <c r="T74" s="164"/>
-      <c r="U74" s="165"/>
-      <c r="V74" s="165"/>
-      <c r="W74" s="166"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="162"/>
+      <c r="H74" s="162"/>
+      <c r="I74" s="162"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="178"/>
+      <c r="M74" s="178"/>
+      <c r="N74" s="178"/>
+      <c r="O74" s="178"/>
+      <c r="P74" s="161"/>
+      <c r="Q74" s="162"/>
+      <c r="R74" s="162"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="165"/>
+      <c r="U74" s="166"/>
+      <c r="V74" s="166"/>
+      <c r="W74" s="167"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="48"/>
@@ -13264,55 +13184,134 @@
       <c r="W84" s="17"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I88" s="175" t="s">
+      <c r="I88" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="175"/>
-      <c r="K88" s="175"/>
-      <c r="L88" s="175"/>
-      <c r="M88" s="175"/>
-      <c r="N88" s="175"/>
-      <c r="O88" s="175"/>
-      <c r="P88" s="175"/>
+      <c r="J88" s="179"/>
+      <c r="K88" s="179"/>
+      <c r="L88" s="179"/>
+      <c r="M88" s="179"/>
+      <c r="N88" s="179"/>
+      <c r="O88" s="179"/>
+      <c r="P88" s="179"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I89" s="167" t="s">
+      <c r="I89" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J89" s="167"/>
-      <c r="K89" s="167"/>
-      <c r="L89" s="167"/>
-      <c r="M89" s="167"/>
-      <c r="N89" s="167"/>
-      <c r="O89" s="167"/>
-      <c r="P89" s="167"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+      <c r="M89" s="175"/>
+      <c r="N89" s="175"/>
+      <c r="O89" s="175"/>
+      <c r="P89" s="175"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I90" s="168" t="s">
+      <c r="I90" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="J90" s="168"/>
-      <c r="K90" s="168"/>
-      <c r="L90" s="168"/>
-      <c r="M90" s="168"/>
-      <c r="N90" s="168"/>
-      <c r="O90" s="168"/>
-      <c r="P90" s="168"/>
+      <c r="J90" s="176"/>
+      <c r="K90" s="176"/>
+      <c r="L90" s="176"/>
+      <c r="M90" s="176"/>
+      <c r="N90" s="176"/>
+      <c r="O90" s="176"/>
+      <c r="P90" s="176"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="169" t="s">
+      <c r="I92" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="J92" s="169"/>
-      <c r="K92" s="169"/>
-      <c r="L92" s="169"/>
-      <c r="M92" s="169"/>
-      <c r="N92" s="169"/>
-      <c r="O92" s="169"/>
-      <c r="P92" s="169"/>
+      <c r="J92" s="177"/>
+      <c r="K92" s="177"/>
+      <c r="L92" s="177"/>
+      <c r="M92" s="177"/>
+      <c r="N92" s="177"/>
+      <c r="O92" s="177"/>
+      <c r="P92" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F65:R65"/>
+    <mergeCell ref="S65:W65"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="I89:P89"/>
+    <mergeCell ref="I90:P90"/>
+    <mergeCell ref="I92:P92"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="N19:V19"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A53:W55"/>
+    <mergeCell ref="A58:W62"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="D22:V22"/>
     <mergeCell ref="D23:E24"/>
     <mergeCell ref="F23:K24"/>
     <mergeCell ref="L23:Q24"/>
@@ -13329,85 +13328,6 @@
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="L30:Q30"/>
     <mergeCell ref="R30:V30"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="N18:W18"/>
-    <mergeCell ref="N19:V19"/>
-    <mergeCell ref="K72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A53:W55"/>
-    <mergeCell ref="A58:W62"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="D22:V22"/>
-    <mergeCell ref="I89:P89"/>
-    <mergeCell ref="I90:P90"/>
-    <mergeCell ref="I92:P92"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="I88:P88"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="N67:W67"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F65:R65"/>
-    <mergeCell ref="S65:W65"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="N15:W15"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="N10:W10"/>
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="N13:W13"/>
-    <mergeCell ref="N14:W14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="N6:W6"/>
   </mergeCells>
   <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -13497,14 +13417,14 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="188" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -13526,14 +13446,14 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
       <c r="H4"/>
-      <c r="I4" s="195" t="s">
+      <c r="I4" s="189" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="195"/>
+      <c r="L4" s="189"/>
       <c r="M4"/>
       <c r="N4" s="69" t="s">
         <v>215</v>
@@ -13545,10 +13465,10 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="190" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="196"/>
+      <c r="C5" s="190"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
@@ -13591,12 +13511,12 @@
       <c r="C6" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
       <c r="H6"/>
       <c r="I6" s="73">
         <v>-180</v>
@@ -13623,20 +13543,20 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="192">
+      <c r="B7" s="194">
         <v>-180</v>
       </c>
-      <c r="C7" s="192">
+      <c r="C7" s="194">
         <v>800</v>
       </c>
-      <c r="D7" s="189" t="s">
+      <c r="D7" s="191" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="189" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="191"/>
+      <c r="G7" s="193"/>
       <c r="H7"/>
       <c r="I7" s="75">
         <v>-180</v>
@@ -13663,16 +13583,16 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="189" t="s">
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="191"/>
-      <c r="F8" s="189" t="s">
+      <c r="E8" s="193"/>
+      <c r="F8" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="191"/>
+      <c r="G8" s="193"/>
       <c r="H8"/>
       <c r="I8" s="75">
         <v>0</v>
@@ -13707,12 +13627,12 @@
       <c r="C9" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="189" t="s">
+      <c r="D9" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -13727,20 +13647,20 @@
       <c r="S9"/>
     </row>
     <row r="10" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="192">
+      <c r="B10" s="194">
         <v>-180</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="194">
         <v>1300</v>
       </c>
-      <c r="D10" s="189" t="s">
+      <c r="D10" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="191"/>
-      <c r="F10" s="189" t="s">
+      <c r="E10" s="193"/>
+      <c r="F10" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="191"/>
+      <c r="G10" s="193"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -13755,16 +13675,16 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="189" t="s">
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="191"/>
-      <c r="F11" s="189" t="s">
+      <c r="E11" s="193"/>
+      <c r="F11" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="191"/>
+      <c r="G11" s="193"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -13781,10 +13701,10 @@
     <row r="12" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -13799,12 +13719,12 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -13819,12 +13739,12 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
       <c r="H14"/>
       <c r="I14" s="69" t="s">
         <v>196</v>
@@ -13885,9 +13805,9 @@
         <f>'Salida de Datos'!A8</f>
         <v>-0.1</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="63" t="e">
         <f>'Salida de Datos'!D8</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L16" s="63">
         <f t="shared" ref="L16:L25" si="0">IF(J16=0,0,IF(J16&lt;=$J$6,$M$6+$N$6*J16+$O$6*J16^2+$P$6*J16^3+$Q$6*J16^4,IF(J16&gt;$J$7,$M$8+$N$8*J16+$O$8*J16^2+$P$8*J16^3+$Q$8*J16^4,$M$7+$N$7*J16+$O$7*J16^2+$P$7*J16^3+$Q$7*J16^4)))</f>
@@ -13919,9 +13839,9 @@
         <f>'Salida de Datos'!A9</f>
         <v>-0.1</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="63" t="e">
         <f>'Salida de Datos'!D9</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L17" s="63">
         <f t="shared" si="0"/>
@@ -13953,9 +13873,9 @@
         <f>'Salida de Datos'!A10</f>
         <v>-0.1</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="63" t="e">
         <f>'Salida de Datos'!D10</f>
-        <v>1.4505939875329235</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L18" s="63">
         <f t="shared" si="0"/>
@@ -13987,9 +13907,9 @@
         <f>'Salida de Datos'!A11</f>
         <v>-0.1</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="63" t="e">
         <f>'Salida de Datos'!D11</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="63">
         <f t="shared" si="0"/>
@@ -14021,9 +13941,9 @@
         <f>'Salida de Datos'!A12</f>
         <v>-0.1</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="63" t="e">
         <f>'Salida de Datos'!D12</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L20" s="63">
         <f t="shared" si="0"/>
@@ -14055,9 +13975,9 @@
         <f>'Salida de Datos'!A13</f>
         <v>-0.1</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="63" t="e">
         <f>'Salida de Datos'!D13</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L21" s="63">
         <f t="shared" si="0"/>
@@ -14089,9 +14009,9 @@
         <f>'Salida de Datos'!A14</f>
         <v>-0.1</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="63" t="e">
         <f>'Salida de Datos'!D14</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L22" s="63">
         <f t="shared" si="0"/>
@@ -14123,9 +14043,9 @@
         <f>'Salida de Datos'!A15</f>
         <v>-0.1</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="63" t="e">
         <f>'Salida de Datos'!D15</f>
-        <v>1.4865368029977151</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L23" s="63">
         <f t="shared" si="0"/>
@@ -14302,17 +14222,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9reMUeN00/sDAbX6a3uCTnBRYTk9YeTGUxutP9Gp2s1XZp4O4b9qBnLyKC142FYfBuidtzZFtavqvwPtIWAzsQ==" saltValue="CCo81mtDr13pu8CFCZyzpQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="25">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -14320,13 +14236,17 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:K25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
